--- a/100runs/run058/NotionalETEOutput058.xlsx
+++ b/100runs/run058/NotionalETEOutput058.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="23">
   <si>
     <t>uniqueid</t>
   </si>
@@ -52,19 +52,37 @@
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
+    <t>Missile_SOMERSAULT_State_Update</t>
+  </si>
+  <si>
     <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_188.MISSILE_HIGHWIND_188</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_273.MISSILE_HELLMASKER_273</t>
+    <t>MISSILE_HIGHWIND_384.MISSILE_HIGHWIND_384</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_401.MISSILE_SOMERSAULT_401</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_221.MISSILE_HELLMASKER_221</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_117.MISSILE_BRAVER_117</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
   </si>
   <si>
+    <t>MISSILE_SOMERSAULT</t>
+  </si>
+  <si>
     <t>MISSILE_HELLMASKER</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -422,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,31 +489,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>214.9975664473886</v>
+        <v>1116576.60867425</v>
       </c>
       <c r="G2">
-        <v>-160.8721551504752</v>
+        <v>4841127.493338072</v>
       </c>
       <c r="H2">
-        <v>1049.501926773576</v>
+        <v>3985227.733313544</v>
       </c>
       <c r="I2">
-        <v>-1433.502189779723</v>
+        <v>1114860.96712475</v>
       </c>
       <c r="J2">
-        <v>2401.660365806934</v>
+        <v>4843225.918298945</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984364.748607728</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,31 +524,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>214.9975664473886</v>
+        <v>1116576.60867425</v>
       </c>
       <c r="G3">
-        <v>-160.8721551504752</v>
+        <v>4841127.493338072</v>
       </c>
       <c r="H3">
-        <v>1049.501926773576</v>
+        <v>3985227.733313544</v>
       </c>
       <c r="I3">
-        <v>-1405.201039513698</v>
+        <v>1114890.581110846</v>
       </c>
       <c r="J3">
-        <v>2343.238070207801</v>
+        <v>4843177.266684153</v>
       </c>
       <c r="K3">
-        <v>223.082426391325</v>
+        <v>3984668.544174813</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,31 +559,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>214.9975664473886</v>
+        <v>1116576.60867425</v>
       </c>
       <c r="G4">
-        <v>-160.8721551504752</v>
+        <v>4841127.493338072</v>
       </c>
       <c r="H4">
-        <v>1049.501926773576</v>
+        <v>3985227.733313544</v>
       </c>
       <c r="I4">
-        <v>-1376.202999458952</v>
+        <v>1114920.924314106</v>
       </c>
       <c r="J4">
-        <v>2284.815774608669</v>
+        <v>4843128.61506936</v>
       </c>
       <c r="K4">
-        <v>435.0409404296462</v>
+        <v>3984957.191102375</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,31 +594,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>214.9975664473886</v>
+        <v>1116576.60867425</v>
       </c>
       <c r="G5">
-        <v>-160.8721551504752</v>
+        <v>4841127.493338072</v>
       </c>
       <c r="H5">
-        <v>1049.501926773576</v>
+        <v>3985227.733313544</v>
       </c>
       <c r="I5">
-        <v>-1346.490909345566</v>
+        <v>1114952.014690831</v>
       </c>
       <c r="J5">
-        <v>2226.393479009537</v>
+        <v>4843079.96345457</v>
       </c>
       <c r="K5">
-        <v>635.8755421149652</v>
+        <v>3985230.689390413</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,31 +629,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>214.9975664473886</v>
+        <v>1116576.60867425</v>
       </c>
       <c r="G6">
-        <v>-160.8721551504752</v>
+        <v>4841127.493338072</v>
       </c>
       <c r="H6">
-        <v>1049.501926773576</v>
+        <v>3985227.733313544</v>
       </c>
       <c r="I6">
-        <v>-1316.047186347759</v>
+        <v>1114983.870639479</v>
       </c>
       <c r="J6">
-        <v>2167.971183410405</v>
+        <v>4843031.311839778</v>
       </c>
       <c r="K6">
-        <v>825.5862314472805</v>
+        <v>3985489.039038927</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,31 +664,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>214.9975664473886</v>
+        <v>1116576.60867425</v>
       </c>
       <c r="G7">
-        <v>-160.8721551504752</v>
+        <v>4841127.493338072</v>
       </c>
       <c r="H7">
-        <v>1049.501926773576</v>
+        <v>3985227.733313544</v>
       </c>
       <c r="I7">
-        <v>-1284.853814678842</v>
+        <v>1115016.511011557</v>
       </c>
       <c r="J7">
-        <v>2109.548887811272</v>
+        <v>4842982.660224986</v>
       </c>
       <c r="K7">
-        <v>1004.173008426594</v>
+        <v>3985732.240047917</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,31 +699,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>214.9975664473886</v>
+        <v>1116576.60867425</v>
       </c>
       <c r="G8">
-        <v>-160.8721551504752</v>
+        <v>4841127.493338072</v>
       </c>
       <c r="H8">
-        <v>1049.501926773576</v>
+        <v>3985227.733313544</v>
       </c>
       <c r="I8">
-        <v>-1252.892334929955</v>
+        <v>1115049.955122768</v>
       </c>
       <c r="J8">
-        <v>2051.126592212139</v>
+        <v>4842934.008610194</v>
       </c>
       <c r="K8">
-        <v>1171.635873052904</v>
+        <v>3985960.292417384</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,31 +734,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>214.9975664473886</v>
+        <v>1116576.60867425</v>
       </c>
       <c r="G9">
-        <v>-160.8721551504752</v>
+        <v>4841127.493338072</v>
       </c>
       <c r="H9">
-        <v>1049.501926773576</v>
+        <v>3985227.733313544</v>
       </c>
       <c r="I9">
-        <v>-1220.143833146273</v>
+        <v>1115084.222764449</v>
       </c>
       <c r="J9">
-        <v>1992.704296613007</v>
+        <v>4842885.356995402</v>
       </c>
       <c r="K9">
-        <v>1327.974825326211</v>
+        <v>3986173.196147326</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,31 +769,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>214.9975664473886</v>
+        <v>1116576.60867425</v>
       </c>
       <c r="G10">
-        <v>-134.3076340818757</v>
+        <v>4841144.006167277</v>
       </c>
       <c r="H10">
-        <v>1049.501926773576</v>
+        <v>3985227.733313544</v>
       </c>
       <c r="I10">
-        <v>-1186.588929634238</v>
+        <v>1115119.334215282</v>
       </c>
       <c r="J10">
-        <v>1934.282001013875</v>
+        <v>4842836.70538061</v>
       </c>
       <c r="K10">
-        <v>1473.189865246515</v>
+        <v>3986370.951237745</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,31 +804,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>166.8631924178946</v>
+        <v>1116527.928193106</v>
       </c>
       <c r="G11">
-        <v>-107.7431130132761</v>
+        <v>4841160.518996481</v>
       </c>
       <c r="H11">
-        <v>1292.979311628002</v>
+        <v>3985426.987690568</v>
       </c>
       <c r="I11">
-        <v>-1152.207767493163</v>
+        <v>1115155.310253289</v>
       </c>
       <c r="J11">
-        <v>1875.859705414743</v>
+        <v>4842788.053765818</v>
       </c>
       <c r="K11">
-        <v>1607.280992813816</v>
+        <v>3986553.557688641</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,31 +839,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>138.5866623564287</v>
+        <v>1116499.33085251</v>
       </c>
       <c r="G12">
-        <v>-81.17859194467665</v>
+        <v>4841177.031825686</v>
       </c>
       <c r="H12">
-        <v>1438.006893953485</v>
+        <v>3985545.673787778</v>
       </c>
       <c r="I12">
-        <v>-1116.980000864454</v>
+        <v>1115192.172168135</v>
       </c>
       <c r="J12">
-        <v>1817.43740981561</v>
+        <v>4842739.402151026</v>
       </c>
       <c r="K12">
-        <v>1730.248208028114</v>
+        <v>3986721.015500012</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,31 +874,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>120.7364421104277</v>
+        <v>1116481.27811312</v>
       </c>
       <c r="G13">
-        <v>-54.61407087607713</v>
+        <v>4841193.544654891</v>
       </c>
       <c r="H13">
-        <v>1541.648305001944</v>
+        <v>3985630.490719768</v>
       </c>
       <c r="I13">
-        <v>-1080.884782891463</v>
+        <v>1115229.941773722</v>
       </c>
       <c r="J13">
-        <v>1759.015114216478</v>
+        <v>4842690.750536234</v>
       </c>
       <c r="K13">
-        <v>1842.09151088941</v>
+        <v>3986873.32467186</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,31 +909,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>108.2877709691645</v>
+        <v>1116468.688205949</v>
       </c>
       <c r="G14">
-        <v>-28.0495498074776</v>
+        <v>4841210.057484095</v>
       </c>
       <c r="H14">
-        <v>1622.353816259452</v>
+        <v>3985696.537619268</v>
       </c>
       <c r="I14">
-        <v>-1043.90075338288</v>
+        <v>1115268.641421098</v>
       </c>
       <c r="J14">
-        <v>1700.592818617345</v>
+        <v>4842642.098921442</v>
       </c>
       <c r="K14">
-        <v>1942.810901397703</v>
+        <v>3987010.485204184</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,31 +944,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>99.00068950261625</v>
+        <v>1116459.295758174</v>
       </c>
       <c r="G15">
-        <v>-1.485028738878103</v>
+        <v>4841226.5703133</v>
       </c>
       <c r="H15">
-        <v>1688.457890069422</v>
+        <v>3985750.635153023</v>
       </c>
       <c r="I15">
-        <v>-1006.006026172331</v>
+        <v>1115308.294011689</v>
       </c>
       <c r="J15">
-        <v>1642.170523018213</v>
+        <v>4842593.447306651</v>
       </c>
       <c r="K15">
-        <v>2032.406379552991</v>
+        <v>3987132.497096984</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,31 +979,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>91.73948869825334</v>
+        <v>1116451.952175632</v>
       </c>
       <c r="G16">
-        <v>25.07949232972142</v>
+        <v>4841243.083142504</v>
       </c>
       <c r="H16">
-        <v>1744.443215222952</v>
+        <v>3985796.451815185</v>
       </c>
       <c r="I16">
-        <v>-967.1781761667321</v>
+        <v>1115348.923010843</v>
       </c>
       <c r="J16">
-        <v>1583.74822741908</v>
+        <v>4842544.795691858</v>
       </c>
       <c r="K16">
-        <v>2110.877945355278</v>
+        <v>3987239.360350261</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,31 +1014,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>85.86464854215691</v>
+        <v>1116446.010682651</v>
       </c>
       <c r="G17">
-        <v>51.64401339832094</v>
+        <v>4841259.595971709</v>
       </c>
       <c r="H17">
-        <v>1793.000288346359</v>
+        <v>3985836.189425153</v>
       </c>
       <c r="I17">
-        <v>-927.394226075712</v>
+        <v>1115390.552461723</v>
       </c>
       <c r="J17">
-        <v>1525.325931819948</v>
+        <v>4842496.144077066</v>
       </c>
       <c r="K17">
-        <v>2178.225598804562</v>
+        <v>3987331.074964013</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,31 +1049,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>80.98643788977895</v>
+        <v>1116441.077126404</v>
       </c>
       <c r="G18">
-        <v>78.20853446692044</v>
+        <v>4841276.108800914</v>
       </c>
       <c r="H18">
-        <v>1835.871379012354</v>
+        <v>3985871.27380257</v>
       </c>
       <c r="I18">
-        <v>-886.6306328142639</v>
+        <v>1115433.206999533</v>
       </c>
       <c r="J18">
-        <v>1466.903636220816</v>
+        <v>4842447.492462275</v>
       </c>
       <c r="K18">
-        <v>2234.449339900842</v>
+        <v>3987407.640938242</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,31 +1084,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>76.85252140163529</v>
+        <v>1116436.896308688</v>
       </c>
       <c r="G19">
-        <v>104.77305553552</v>
+        <v>4841292.621630118</v>
       </c>
       <c r="H19">
-        <v>1874.249632059926</v>
+        <v>3985902.68138035</v>
       </c>
       <c r="I19">
-        <v>-844.8632735705704</v>
+        <v>1115476.911866094</v>
       </c>
       <c r="J19">
-        <v>1408.481340621683</v>
+        <v>4842398.840847483</v>
       </c>
       <c r="K19">
-        <v>2279.54916864412</v>
+        <v>3987469.058272948</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,31 +1119,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>73.29155565350634</v>
+        <v>1116433.294942109</v>
       </c>
       <c r="G20">
-        <v>131.3375766041195</v>
+        <v>4841309.134459323</v>
       </c>
       <c r="H20">
-        <v>1908.988046398784</v>
+        <v>3985931.11022647</v>
       </c>
       <c r="I20">
-        <v>-802.0674315307668</v>
+        <v>1115521.692924788</v>
       </c>
       <c r="J20">
-        <v>1350.059045022551</v>
+        <v>4842350.18923269</v>
       </c>
       <c r="K20">
-        <v>2313.525085034395</v>
+        <v>3987515.326968129</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,31 +1154,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>70.18264855411346</v>
+        <v>1116430.150762996</v>
       </c>
       <c r="G21">
-        <v>157.902097672719</v>
+        <v>4841325.647288528</v>
       </c>
       <c r="H21">
-        <v>1940.717621390524</v>
+        <v>3985957.076731334</v>
       </c>
       <c r="I21">
-        <v>-758.2177812521861</v>
+        <v>1115567.576675853</v>
       </c>
       <c r="J21">
-        <v>1291.636749423419</v>
+        <v>4842301.537617899</v>
       </c>
       <c r="K21">
-        <v>2336.377089071667</v>
+        <v>3987546.447023787</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,31 +1189,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>67.43777742248702</v>
+        <v>1116427.374750011</v>
       </c>
       <c r="G22">
-        <v>184.4666187413185</v>
+        <v>4841342.160117732</v>
       </c>
       <c r="H22">
-        <v>1969.918280692333</v>
+        <v>3985980.973649651</v>
       </c>
       <c r="I22">
-        <v>-713.2883736764336</v>
+        <v>1115614.590272076</v>
       </c>
       <c r="J22">
-        <v>1233.214453824286</v>
+        <v>4842252.886003107</v>
       </c>
       <c r="K22">
-        <v>2348.105180755936</v>
+        <v>3987562.418439921</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,31 +1224,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>64.99114498331264</v>
+        <v>1116424.900359376</v>
       </c>
       <c r="G23">
-        <v>211.031139809918</v>
+        <v>4841358.672946937</v>
       </c>
       <c r="H23">
-        <v>1996.963555930066</v>
+        <v>3986003.106668174</v>
       </c>
       <c r="I23">
-        <v>-667.2526207734252</v>
+        <v>1115662.761534855</v>
       </c>
       <c r="J23">
-        <v>1174.792158225154</v>
+        <v>4842204.234388315</v>
       </c>
       <c r="K23">
-        <v>2348.709360087202</v>
+        <v>3987563.241216531</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,31 +1259,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.79245934250166</v>
+        <v>1116422.676728612</v>
       </c>
       <c r="G24">
-        <v>237.5956608785176</v>
+        <v>4841375.185776142</v>
       </c>
       <c r="H24">
-        <v>2022.149881676223</v>
+        <v>3986023.718379809</v>
       </c>
       <c r="I24">
-        <v>-620.0832798072964</v>
+        <v>1115712.118970663</v>
       </c>
       <c r="J24">
-        <v>1116.369862626022</v>
+        <v>4842155.582773522</v>
       </c>
       <c r="K24">
-        <v>2338.189627065465</v>
+        <v>3987548.915353617</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,31 +1294,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.80253794699101</v>
+        <v>1116420.664230622</v>
       </c>
       <c r="G25">
-        <v>264.1601819471171</v>
+        <v>4841391.698605346</v>
       </c>
       <c r="H25">
-        <v>2045.716453635725</v>
+        <v>3986043.004534936</v>
       </c>
       <c r="I25">
-        <v>-571.7524372148744</v>
+        <v>1115762.691787919</v>
       </c>
       <c r="J25">
-        <v>1057.947567026889</v>
+        <v>4842106.931158731</v>
       </c>
       <c r="K25">
-        <v>2316.545981690725</v>
+        <v>3987519.440851179</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,31 +1329,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.99034295528576</v>
+        <v>1116418.831475426</v>
       </c>
       <c r="G26">
-        <v>290.7247030157166</v>
+        <v>4841408.211434552</v>
       </c>
       <c r="H26">
-        <v>2067.859078130694</v>
+        <v>3986061.125375408</v>
       </c>
       <c r="I26">
-        <v>-522.231492087174</v>
+        <v>1115814.509914275</v>
       </c>
       <c r="J26">
-        <v>999.5252714277568</v>
+        <v>4842058.279543939</v>
       </c>
       <c r="K26">
-        <v>2283.778423962982</v>
+        <v>3987474.817709218</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,31 +1364,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.33092851669313</v>
+        <v>1116417.15323415</v>
       </c>
       <c r="G27">
-        <v>317.2892240843161</v>
+        <v>4841424.724263756</v>
       </c>
       <c r="H27">
-        <v>2088.740070679737</v>
+        <v>3986078.213735234</v>
       </c>
       <c r="I27">
-        <v>-471.4911392441384</v>
+        <v>1115867.60401432</v>
       </c>
       <c r="J27">
-        <v>941.1029758286244</v>
+        <v>4842009.627929146</v>
       </c>
       <c r="K27">
-        <v>2239.886953882236</v>
+        <v>3987415.045927733</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,31 +1399,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.80398630423075</v>
+        <v>1116415.60896806</v>
       </c>
       <c r="G28">
-        <v>343.8537451529156</v>
+        <v>4841441.237092961</v>
       </c>
       <c r="H28">
-        <v>2108.495483488653</v>
+        <v>3986094.380955341</v>
       </c>
       <c r="I28">
-        <v>-419.5013518926118</v>
+        <v>1115922.005507733</v>
       </c>
       <c r="J28">
-        <v>882.6806802294922</v>
+        <v>4841960.976314355</v>
       </c>
       <c r="K28">
-        <v>2184.871571448488</v>
+        <v>3987340.125506725</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,31 +1434,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.39279377053567</v>
+        <v>1116414.181764883</v>
       </c>
       <c r="G29">
-        <v>370.4182662215152</v>
+        <v>4841457.749922166</v>
       </c>
       <c r="H29">
-        <v>2127.240482678771</v>
+        <v>3986109.721284129</v>
       </c>
       <c r="I29">
-        <v>-366.2313638572805</v>
+        <v>1115977.746587873</v>
       </c>
       <c r="J29">
-        <v>824.2583846303597</v>
+        <v>4841912.324699563</v>
       </c>
       <c r="K29">
-        <v>2118.732276661736</v>
+        <v>3987250.056446192</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,31 +1469,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.08343975115037</v>
+        <v>1116412.857555626</v>
       </c>
       <c r="G30">
-        <v>396.9827872901146</v>
+        <v>4841474.26275137</v>
       </c>
       <c r="H30">
-        <v>2145.073416081893</v>
+        <v>3986124.315206426</v>
       </c>
       <c r="I30">
-        <v>-311.6496513740699</v>
+        <v>1116034.86024083</v>
       </c>
       <c r="J30">
-        <v>765.8360890312273</v>
+        <v>4841863.673084771</v>
       </c>
       <c r="K30">
-        <v>2041.469069521981</v>
+        <v>3987144.838746136</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,31 +1504,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.86424498888697</v>
+        <v>1116411.624528526</v>
       </c>
       <c r="G31">
-        <v>423.5473083587142</v>
+        <v>4841490.775580575</v>
       </c>
       <c r="H31">
-        <v>2162.078936536137</v>
+        <v>3986138.231999503</v>
       </c>
       <c r="I31">
-        <v>-255.723914435215</v>
+        <v>1116093.380264948</v>
       </c>
       <c r="J31">
-        <v>707.4137934320951</v>
+        <v>4841815.021469979</v>
       </c>
       <c r="K31">
-        <v>1953.081950029224</v>
+        <v>3987024.472406556</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,31 +1539,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.72532216605519</v>
+        <v>1116410.472684088</v>
       </c>
       <c r="G32">
-        <v>450.1118294273137</v>
+        <v>4841507.28840978</v>
       </c>
       <c r="H32">
-        <v>2178.330432208584</v>
+        <v>3986151.531721972</v>
       </c>
       <c r="I32">
-        <v>-198.4210576749754</v>
+        <v>1116153.341290822</v>
       </c>
       <c r="J32">
-        <v>648.9914978329625</v>
+        <v>4841766.369855187</v>
       </c>
       <c r="K32">
-        <v>1853.570918183464</v>
+        <v>3986888.957427452</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,31 +1574,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.6582374367642</v>
+        <v>1116409.393492781</v>
       </c>
       <c r="G33">
-        <v>476.6763504959131</v>
+        <v>4841523.801238984</v>
       </c>
       <c r="H33">
-        <v>2193.89194063382</v>
+        <v>3986164.266780173</v>
       </c>
       <c r="I33">
-        <v>-139.7071707846762</v>
+        <v>1116214.778801796</v>
       </c>
       <c r="J33">
-        <v>590.5692022338304</v>
+        <v>4841717.718240395</v>
       </c>
       <c r="K33">
-        <v>1742.935973984701</v>
+        <v>3986738.293808825</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,31 +1609,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.65574691304646</v>
+        <v>1116408.37962853</v>
       </c>
       <c r="G34">
-        <v>503.2408715645127</v>
+        <v>4841540.314068189</v>
       </c>
       <c r="H34">
-        <v>2208.819672733685</v>
+        <v>3986176.483175391</v>
       </c>
       <c r="I34">
-        <v>-79.54750844548869</v>
+        <v>1116277.729154955</v>
       </c>
       <c r="J34">
-        <v>532.1469066346979</v>
+        <v>4841669.066625604</v>
       </c>
       <c r="K34">
-        <v>1621.177117432934</v>
+        <v>3986572.481550673</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,31 +1644,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.71158925614621</v>
+        <v>1116407.424758961</v>
       </c>
       <c r="G35">
-        <v>529.8053926331122</v>
+        <v>4841556.826897393</v>
       </c>
       <c r="H35">
-        <v>2223.163238463288</v>
+        <v>3986188.221506881</v>
       </c>
       <c r="I35">
-        <v>-17.9064697670735</v>
+        <v>1116342.229602648</v>
       </c>
       <c r="J35">
-        <v>473.7246110355654</v>
+        <v>4841620.415010812</v>
       </c>
       <c r="K35">
-        <v>1488.294348528165</v>
+        <v>3986391.520652998</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,31 +1679,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.82032078744623</v>
+        <v>1116406.523378632</v>
       </c>
       <c r="G36">
-        <v>556.3699137017118</v>
+        <v>4841573.339726598</v>
       </c>
       <c r="H36">
-        <v>2236.96664154884</v>
+        <v>3986199.517785935</v>
       </c>
       <c r="I36">
-        <v>45.25242278008209</v>
+        <v>1116408.318314526</v>
       </c>
       <c r="J36">
-        <v>415.3023154364332</v>
+        <v>4841571.76339602</v>
       </c>
       <c r="K36">
-        <v>1344.287667270393</v>
+        <v>3986195.4111158</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,31 +1714,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.97718319150191</v>
+        <v>1116405.670675243</v>
       </c>
       <c r="G37">
-        <v>582.9344347703112</v>
+        <v>4841589.852555803</v>
       </c>
       <c r="H37">
-        <v>2250.269093630213</v>
+        <v>3986210.404102148</v>
       </c>
       <c r="I37">
-        <v>109.9665449510956</v>
+        <v>1116476.034400134</v>
       </c>
       <c r="J37">
-        <v>356.8800198373008</v>
+        <v>4841523.111781228</v>
       </c>
       <c r="K37">
-        <v>1189.157073659618</v>
+        <v>3985984.152939077</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,31 +1749,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.17799646445655</v>
+        <v>1116404.862421367</v>
       </c>
       <c r="G38">
-        <v>609.4989558389108</v>
+        <v>4841606.365385007</v>
       </c>
       <c r="H38">
-        <v>2263.105685778138</v>
+        <v>3986220.909172971</v>
       </c>
       <c r="I38">
-        <v>176.2741928446702</v>
+        <v>1116545.417932052</v>
       </c>
       <c r="J38">
-        <v>298.4577242381686</v>
+        <v>4841474.460166437</v>
       </c>
       <c r="K38">
-        <v>1022.90256769584</v>
+        <v>3985757.746122831</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,31 +1784,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.41907160727813</v>
+        <v>1116404.09488615</v>
       </c>
       <c r="G39">
-        <v>636.0634769075103</v>
+        <v>4841622.878214212</v>
       </c>
       <c r="H39">
-        <v>2275.507946356816</v>
+        <v>3986231.058800242</v>
       </c>
       <c r="I39">
-        <v>244.2146055657058</v>
+        <v>1116616.509969611</v>
       </c>
       <c r="J39">
-        <v>240.0354286390361</v>
+        <v>4841425.808551644</v>
       </c>
       <c r="K39">
-        <v>845.5241493790589</v>
+        <v>3985516.190667061</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,31 +1819,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.69713890084824</v>
+        <v>1116403.364762778</v>
       </c>
       <c r="G40">
-        <v>662.6279979761098</v>
+        <v>4841639.391043417</v>
       </c>
       <c r="H40">
-        <v>2287.504307561436</v>
+        <v>3986240.876251994</v>
       </c>
       <c r="I40">
-        <v>313.827988445964</v>
+        <v>1116689.352583193</v>
       </c>
       <c r="J40">
-        <v>181.6131330399036</v>
+        <v>4841377.156936852</v>
       </c>
       <c r="K40">
-        <v>657.0218187092751</v>
+        <v>3985259.486571767</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,31 +1854,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.00928858057121</v>
+        <v>1116402.669108472</v>
       </c>
       <c r="G41">
-        <v>689.1925190447093</v>
+        <v>4841655.903872621</v>
       </c>
       <c r="H41">
-        <v>2299.120498003785</v>
+        <v>3986250.382583727</v>
       </c>
       <c r="I41">
-        <v>385.1555368365094</v>
+        <v>1116763.988879119</v>
       </c>
       <c r="J41">
-        <v>123.1908374407714</v>
+        <v>4841328.505322061</v>
       </c>
       <c r="K41">
-        <v>457.3955756864887</v>
+        <v>3984987.633836949</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,31 +1889,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.35292145505645</v>
+        <v>1116402.005294553</v>
       </c>
       <c r="G42">
-        <v>715.7570401133088</v>
+        <v>4841672.416701826</v>
       </c>
       <c r="H42">
-        <v>2310.379874981491</v>
+        <v>3986259.596910333</v>
       </c>
       <c r="I42">
-        <v>458.2394604860324</v>
+        <v>1116840.463025169</v>
       </c>
       <c r="J42">
-        <v>64.76854184163894</v>
+        <v>4841279.853707269</v>
       </c>
       <c r="K42">
-        <v>246.6454203106986</v>
+        <v>3984700.632462608</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,31 +1924,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.72570755774814</v>
+        <v>1116401.370964619</v>
       </c>
       <c r="G43">
-        <v>742.3215611819085</v>
+        <v>4841688.929531031</v>
       </c>
       <c r="H43">
-        <v>2321.303707220527</v>
+        <v>3986268.536637482</v>
       </c>
       <c r="I43">
-        <v>533.1230085194474</v>
+        <v>1116918.82027671</v>
       </c>
       <c r="J43">
-        <v>6.346246242506465</v>
+        <v>4841231.202092476</v>
       </c>
       <c r="K43">
-        <v>24.77135258190584</v>
+        <v>3984398.482448743</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,31 +1959,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.12555133190777</v>
+        <v>1116400.763999338</v>
       </c>
       <c r="G44">
-        <v>768.8860822505079</v>
+        <v>4841705.442360235</v>
       </c>
       <c r="H44">
-        <v>2331.911416693816</v>
+        <v>3986277.217659516</v>
       </c>
       <c r="I44">
-        <v>609.8504950315836</v>
+        <v>1116999.107003483</v>
       </c>
       <c r="J44">
-        <v>-52.07604935662573</v>
+        <v>4841182.550477684</v>
       </c>
       <c r="K44">
-        <v>-208.2266274998892</v>
+        <v>3984081.183795353</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,31 +1994,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.55056216327883</v>
+        <v>1116400.182486647</v>
       </c>
       <c r="G45">
-        <v>795.4506033191074</v>
+        <v>4841721.95518944</v>
       </c>
       <c r="H45">
-        <v>2342.220786424385</v>
+        <v>3986285.654529513</v>
       </c>
       <c r="I45">
-        <v>688.4673253110883</v>
+        <v>1117081.370717041</v>
       </c>
       <c r="J45">
-        <v>-110.4983449557582</v>
+        <v>4841133.898862893</v>
       </c>
       <c r="K45">
-        <v>-452.3485199346879</v>
+        <v>3983748.736502441</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,31 +2029,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.99902931624298</v>
+        <v>1116399.6246964</v>
       </c>
       <c r="G46">
-        <v>822.015124387707</v>
+        <v>4841738.468018644</v>
       </c>
       <c r="H46">
-        <v>2352.248139858043</v>
+        <v>3986293.860606077</v>
       </c>
       <c r="I46">
-        <v>769.0200227100687</v>
+        <v>1117165.660098864</v>
       </c>
       <c r="J46">
-        <v>-168.9206405548907</v>
+        <v>4841085.2472481</v>
       </c>
       <c r="K46">
-        <v>-707.59432472249</v>
+        <v>3983401.140570004</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,31 +2064,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.46940051650937</v>
+        <v>1116399.089058713</v>
       </c>
       <c r="G47">
-        <v>848.5796454563065</v>
+        <v>4841754.98084785</v>
       </c>
       <c r="H47">
-        <v>2362.008496349179</v>
+        <v>3986301.848180583</v>
       </c>
       <c r="I47">
-        <v>851.556256175376</v>
+        <v>1117252.025029169</v>
       </c>
       <c r="J47">
-        <v>-227.3429361540232</v>
+        <v>4841036.595633308</v>
       </c>
       <c r="K47">
-        <v>-973.9640418632947</v>
+        <v>3983038.395998044</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,31 +2099,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.96026356961844</v>
+        <v>1116398.574145368</v>
       </c>
       <c r="G48">
-        <v>875.1441665249059</v>
+        <v>4841771.493677055</v>
       </c>
       <c r="H48">
-        <v>2371.515706478034</v>
+        <v>3986309.62858792</v>
       </c>
       <c r="I48">
-        <v>936.1248684578237</v>
+        <v>1117340.516616428</v>
       </c>
       <c r="J48">
-        <v>-285.7652317531551</v>
+        <v>4840987.944018517</v>
       </c>
       <c r="K48">
-        <v>-1251.4576713571</v>
+        <v>3982660.50278656</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,31 +2134,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.47033051957638</v>
+        <v>1116398.078653797</v>
       </c>
       <c r="G49">
-        <v>901.7086875935055</v>
+        <v>4841788.006506259</v>
       </c>
       <c r="H49">
-        <v>2380.78257025959</v>
+        <v>3986317.212303224</v>
       </c>
       <c r="I49">
-        <v>1022.775905016031</v>
+        <v>1117431.187227614</v>
       </c>
       <c r="J49">
-        <v>-344.1875273522875</v>
+        <v>4840939.292403725</v>
       </c>
       <c r="K49">
-        <v>-1540.075213203911</v>
+        <v>3982267.460935553</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,31 +2169,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.99842394301675</v>
+        <v>1116397.601393218</v>
       </c>
       <c r="G50">
-        <v>928.2732086621049</v>
+        <v>4841804.519335464</v>
       </c>
       <c r="H50">
-        <v>2389.820940775824</v>
+        <v>3986324.609026692</v>
       </c>
       <c r="I50">
-        <v>1111.560643631992</v>
+        <v>1117524.090519184</v>
       </c>
       <c r="J50">
-        <v>-402.60982295142</v>
+        <v>4840890.640788932</v>
       </c>
       <c r="K50">
-        <v>-1839.816667403724</v>
+        <v>3981859.270445021</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,31 +2204,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.54346504685703</v>
+        <v>1116397.1412726</v>
       </c>
       <c r="G51">
-        <v>954.8377297307044</v>
+        <v>4841821.032164669</v>
       </c>
       <c r="H51">
-        <v>2398.641815336495</v>
+        <v>3986331.827758183</v>
       </c>
       <c r="I51">
-        <v>1202.531624755908</v>
+        <v>1117619.281468839</v>
       </c>
       <c r="J51">
-        <v>-461.0321185505525</v>
+        <v>4840841.989174141</v>
       </c>
       <c r="K51">
-        <v>-2150.682033956541</v>
+        <v>3981435.931314966</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,31 +2239,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.1044632955856</v>
+        <v>1116396.697290167</v>
       </c>
       <c r="G52">
-        <v>981.4022507993041</v>
+        <v>4841837.544993873</v>
       </c>
       <c r="H52">
-        <v>2407.255415927249</v>
+        <v>3986338.876863054</v>
       </c>
       <c r="I52">
-        <v>1295.742682598234</v>
+        <v>1117716.816408056</v>
       </c>
       <c r="J52">
-        <v>-519.454414149685</v>
+        <v>4840793.337559349</v>
       </c>
       <c r="K52">
-        <v>-2472.67131286236</v>
+        <v>3980997.443545387</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,31 +2274,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.68050734119379</v>
+        <v>1116396.268524233</v>
       </c>
       <c r="G53">
-        <v>1007.966771867904</v>
+        <v>4841854.057823078</v>
       </c>
       <c r="H53">
-        <v>2415.671260421075</v>
+        <v>3986345.76413044</v>
       </c>
       <c r="I53">
-        <v>1391.248976987325</v>
+        <v>1117816.75305542</v>
       </c>
       <c r="J53">
-        <v>-577.8767097488169</v>
+        <v>4840744.685944557</v>
       </c>
       <c r="K53">
-        <v>-2805.78450412118</v>
+        <v>3980543.807136284</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,31 +2309,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.27075706676231</v>
+        <v>1116395.854125149</v>
       </c>
       <c r="G54">
-        <v>1034.531292936503</v>
+        <v>4841870.570652283</v>
       </c>
       <c r="H54">
-        <v>2423.898225797227</v>
+        <v>3986352.496824985</v>
       </c>
       <c r="I54">
-        <v>1489.107026011569</v>
+        <v>1117919.150550786</v>
       </c>
       <c r="J54">
-        <v>-636.2990053479493</v>
+        <v>4840696.034329765</v>
       </c>
       <c r="K54">
-        <v>-3150.021607733005</v>
+        <v>3980075.022087658</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2326,31 +2344,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>235.054327666184</v>
+        <v>1116578.026739216</v>
       </c>
       <c r="G55">
-        <v>-110.7418926104255</v>
+        <v>4841119.87111169</v>
       </c>
       <c r="H55">
-        <v>1079.20924640163</v>
+        <v>3985224.290329013</v>
       </c>
       <c r="I55">
-        <v>-1373.488091893378</v>
+        <v>1114862.346056829</v>
       </c>
       <c r="J55">
-        <v>1528.330892226376</v>
+        <v>4843221.257836929</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984370.77449955</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2361,31 +2379,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>235.054327666184</v>
+        <v>1116578.026739216</v>
       </c>
       <c r="G56">
-        <v>-110.7418926104255</v>
+        <v>4841119.87111169</v>
       </c>
       <c r="H56">
-        <v>1079.20924640163</v>
+        <v>3985224.290329013</v>
       </c>
       <c r="I56">
-        <v>-1346.371779721406</v>
+        <v>1114891.960079554</v>
       </c>
       <c r="J56">
-        <v>1491.153029598437</v>
+        <v>4843172.606268953</v>
       </c>
       <c r="K56">
-        <v>313.176542583932</v>
+        <v>3984674.570526091</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2396,31 +2414,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>235.054327666184</v>
+        <v>1116578.026739216</v>
       </c>
       <c r="G57">
-        <v>-110.7418926104255</v>
+        <v>4841119.87111169</v>
       </c>
       <c r="H57">
-        <v>1079.20924640163</v>
+        <v>3985224.290329013</v>
       </c>
       <c r="I57">
-        <v>-1318.58775330875</v>
+        <v>1114922.303320344</v>
       </c>
       <c r="J57">
-        <v>1453.975166970499</v>
+        <v>4843123.954700976</v>
       </c>
       <c r="K57">
-        <v>610.7366672048938</v>
+        <v>3984963.217890198</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2431,31 +2449,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>235.054327666184</v>
+        <v>1116578.026739216</v>
       </c>
       <c r="G58">
-        <v>-110.7418926104255</v>
+        <v>4841119.87111169</v>
       </c>
       <c r="H58">
-        <v>1079.20924640163</v>
+        <v>3985224.290329013</v>
       </c>
       <c r="I58">
-        <v>-1290.119570806518</v>
+        <v>1114953.393735523</v>
       </c>
       <c r="J58">
-        <v>1416.79730434256</v>
+        <v>4843075.303133</v>
       </c>
       <c r="K58">
-        <v>892.6803738628879</v>
+        <v>3985236.71659187</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2466,31 +2484,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>235.054327666184</v>
+        <v>1116578.026739216</v>
       </c>
       <c r="G59">
-        <v>-110.7418926104255</v>
+        <v>4841119.87111169</v>
       </c>
       <c r="H59">
-        <v>1079.20924640163</v>
+        <v>3985224.290329013</v>
       </c>
       <c r="I59">
-        <v>-1260.950385500415</v>
+        <v>1114985.249723573</v>
       </c>
       <c r="J59">
-        <v>1379.619441714621</v>
+        <v>4843026.651565024</v>
       </c>
       <c r="K59">
-        <v>1159.007662557912</v>
+        <v>3985495.066631109</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2501,31 +2519,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>235.054327666184</v>
+        <v>1116578.026739216</v>
       </c>
       <c r="G60">
-        <v>-110.7418926104255</v>
+        <v>4841119.87111169</v>
       </c>
       <c r="H60">
-        <v>1079.20924640163</v>
+        <v>3985224.290329013</v>
       </c>
       <c r="I60">
-        <v>-1231.062935841308</v>
+        <v>1115017.890136023</v>
       </c>
       <c r="J60">
-        <v>1342.441579086683</v>
+        <v>4842977.999997048</v>
       </c>
       <c r="K60">
-        <v>1409.718533289969</v>
+        <v>3985738.268007912</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2536,31 +2554,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>235.054327666184</v>
+        <v>1116578.026739216</v>
       </c>
       <c r="G61">
-        <v>-110.7418926104255</v>
+        <v>4841119.87111169</v>
       </c>
       <c r="H61">
-        <v>1079.20924640163</v>
+        <v>3985224.290329013</v>
       </c>
       <c r="I61">
-        <v>-1200.439535230296</v>
+        <v>1115051.334288599</v>
       </c>
       <c r="J61">
-        <v>1305.263716458744</v>
+        <v>4842929.348429071</v>
       </c>
       <c r="K61">
-        <v>1644.812986059057</v>
+        <v>3985966.320722281</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2571,31 +2589,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>235.054327666184</v>
+        <v>1116578.026739216</v>
       </c>
       <c r="G62">
-        <v>-110.7418926104255</v>
+        <v>4841119.87111169</v>
       </c>
       <c r="H62">
-        <v>1079.20924640163</v>
+        <v>3985224.290329013</v>
       </c>
       <c r="I62">
-        <v>-1169.062061552249</v>
+        <v>1115085.601972665</v>
       </c>
       <c r="J62">
-        <v>1268.085853830805</v>
+        <v>4842880.696861095</v>
       </c>
       <c r="K62">
-        <v>1864.291020865176</v>
+        <v>3986179.224774217</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2606,31 +2624,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>235.054327666184</v>
+        <v>1116578.026739216</v>
       </c>
       <c r="G63">
-        <v>-92.45528896124486</v>
+        <v>4841136.383914896</v>
       </c>
       <c r="H63">
-        <v>1079.20924640163</v>
+        <v>3985224.290329013</v>
       </c>
       <c r="I63">
-        <v>-1136.911946451627</v>
+        <v>1115120.713466926</v>
       </c>
       <c r="J63">
-        <v>1230.907991202867</v>
+        <v>4842832.045293119</v>
       </c>
       <c r="K63">
-        <v>2068.152637708326</v>
+        <v>3986376.980163717</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2641,31 +2659,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>182.4295788744157</v>
+        <v>1116529.346196248</v>
       </c>
       <c r="G64">
-        <v>-74.16868531206423</v>
+        <v>4841152.896718102</v>
       </c>
       <c r="H64">
-        <v>1329.578529507553</v>
+        <v>3985423.544533894</v>
       </c>
       <c r="I64">
-        <v>-1103.970164344215</v>
+        <v>1115156.689549431</v>
       </c>
       <c r="J64">
-        <v>1193.730128574928</v>
+        <v>4842783.393725143</v>
       </c>
       <c r="K64">
-        <v>2256.397836588506</v>
+        <v>3986559.586890784</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2676,31 +2694,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>151.5151789016282</v>
+        <v>1116500.748819333</v>
       </c>
       <c r="G65">
-        <v>-55.88208166288359</v>
+        <v>4841169.409521307</v>
       </c>
       <c r="H65">
-        <v>1478.711278896685</v>
+        <v>3985542.230528567</v>
       </c>
       <c r="I65">
-        <v>-1070.217221158292</v>
+        <v>1115193.55150987</v>
       </c>
       <c r="J65">
-        <v>1156.55226594699</v>
+        <v>4842734.742157166</v>
       </c>
       <c r="K65">
-        <v>2429.026617505719</v>
+        <v>3986727.044955416</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2711,31 +2729,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>131.9997416436731</v>
+        <v>1116482.696057015</v>
       </c>
       <c r="G66">
-        <v>-37.59547801370295</v>
+        <v>4841185.922324513</v>
       </c>
       <c r="H66">
-        <v>1585.286375387899</v>
+        <v>3985627.047387281</v>
       </c>
       <c r="I66">
-        <v>-1035.633142798554</v>
+        <v>1115231.321162173</v>
       </c>
       <c r="J66">
-        <v>1119.374403319051</v>
+        <v>4842686.09058919</v>
       </c>
       <c r="K66">
-        <v>2586.038980459963</v>
+        <v>3986879.354357614</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2746,31 +2764,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>118.3897549177857</v>
+        <v>1116470.106133855</v>
       </c>
       <c r="G67">
-        <v>-19.30887436452231</v>
+        <v>4841202.435127718</v>
       </c>
       <c r="H67">
-        <v>1668.276345927957</v>
+        <v>3985693.094229721</v>
       </c>
       <c r="I67">
-        <v>-1000.197463325976</v>
+        <v>1115270.020857415</v>
       </c>
       <c r="J67">
-        <v>1082.196540691112</v>
+        <v>4842637.439021214</v>
       </c>
       <c r="K67">
-        <v>2727.434925451238</v>
+        <v>3987016.515097377</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2781,31 +2799,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>108.2362972476741</v>
+        <v>1116460.713674152</v>
       </c>
       <c r="G68">
-        <v>-1.022270715341683</v>
+        <v>4841218.947930925</v>
       </c>
       <c r="H68">
-        <v>1736.25156908915</v>
+        <v>3985747.191716739</v>
       </c>
       <c r="I68">
-        <v>-963.8892128466136</v>
+        <v>1115309.673497051</v>
       </c>
       <c r="J68">
-        <v>1045.018678063174</v>
+        <v>4842588.787453238</v>
       </c>
       <c r="K68">
-        <v>2853.214452479543</v>
+        <v>3987138.527174707</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2816,31 +2834,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>100.2977112379746</v>
+        <v>1116453.370082283</v>
       </c>
       <c r="G69">
-        <v>17.26433293383896</v>
+        <v>4841235.46073413</v>
       </c>
       <c r="H69">
-        <v>1793.821621155883</v>
+        <v>3985793.008339318</v>
       </c>
       <c r="I69">
-        <v>-926.6869051021747</v>
+        <v>1115350.302546457</v>
       </c>
       <c r="J69">
-        <v>1007.840815435235</v>
+        <v>4842540.135885261</v>
       </c>
       <c r="K69">
-        <v>2963.37756154488</v>
+        <v>3987245.390589601</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2851,31 +2869,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>93.87481712872675</v>
+        <v>1116447.428581756</v>
       </c>
       <c r="G70">
-        <v>35.5509365830196</v>
+        <v>4841251.973537335</v>
       </c>
       <c r="H70">
-        <v>1843.753156254709</v>
+        <v>3985832.745914955</v>
       </c>
       <c r="I70">
-        <v>-888.5685247550242</v>
+        <v>1115391.932048827</v>
       </c>
       <c r="J70">
-        <v>970.6629528072963</v>
+        <v>4842491.484317285</v>
       </c>
       <c r="K70">
-        <v>3057.924252647249</v>
+        <v>3987337.105342062</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2886,31 +2904,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>88.5415264126697</v>
+        <v>1116442.495019243</v>
       </c>
       <c r="G71">
-        <v>53.83754023220023</v>
+        <v>4841268.486340541</v>
       </c>
       <c r="H71">
-        <v>1887.837760836904</v>
+        <v>3985867.830262062</v>
       </c>
       <c r="I71">
-        <v>-849.5115143600924</v>
+        <v>1115434.586639395</v>
       </c>
       <c r="J71">
-        <v>933.4850901793576</v>
+        <v>4842442.832749309</v>
       </c>
       <c r="K71">
-        <v>3136.854525786649</v>
+        <v>3987413.671432088</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2921,31 +2939,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>84.02196381107838</v>
+        <v>1116438.314196219</v>
       </c>
       <c r="G72">
-        <v>72.12414388138089</v>
+        <v>4841284.999143747</v>
       </c>
       <c r="H72">
-        <v>1927.302353033519</v>
+        <v>3985899.237812707</v>
       </c>
       <c r="I72">
-        <v>-809.4927610159757</v>
+        <v>1115478.291560014</v>
       </c>
       <c r="J72">
-        <v>896.3072275514189</v>
+        <v>4842394.181181333</v>
       </c>
       <c r="K72">
-        <v>3200.168380963079</v>
+        <v>3987475.08885968</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2956,31 +2974,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>80.12880155999036</v>
+        <v>1116434.712825065</v>
       </c>
       <c r="G73">
-        <v>90.41074753056151</v>
+        <v>4841301.511946953</v>
       </c>
       <c r="H73">
-        <v>1963.024076837381</v>
+        <v>3985927.666634266</v>
       </c>
       <c r="I73">
-        <v>-768.4885826873382</v>
+        <v>1115523.072674095</v>
       </c>
       <c r="J73">
-        <v>859.1293649234804</v>
+        <v>4842345.529613356</v>
       </c>
       <c r="K73">
-        <v>3247.865818176541</v>
+        <v>3987521.357624837</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2991,31 +3009,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>76.72986974834474</v>
+        <v>1116431.568641959</v>
       </c>
       <c r="G74">
-        <v>108.6973511797421</v>
+        <v>4841318.024750158</v>
       </c>
       <c r="H74">
-        <v>1995.651792749014</v>
+        <v>3985953.633116698</v>
       </c>
       <c r="I74">
-        <v>-726.4747141905106</v>
+        <v>1115568.956481913</v>
       </c>
       <c r="J74">
-        <v>821.9515022955417</v>
+        <v>4842296.87804538</v>
       </c>
       <c r="K74">
-        <v>3279.946837427035</v>
+        <v>3987552.47772756</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3026,31 +3044,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>73.72893420737128</v>
+        <v>1116428.792625448</v>
       </c>
       <c r="G75">
-        <v>126.9839548289228</v>
+        <v>4841334.537553363</v>
       </c>
       <c r="H75">
-        <v>2025.679009198646</v>
+        <v>3985977.530014369</v>
       </c>
       <c r="I75">
-        <v>-683.4262928339986</v>
+        <v>1115615.970136285</v>
       </c>
       <c r="J75">
-        <v>784.7736396676031</v>
+        <v>4842248.226477404</v>
       </c>
       <c r="K75">
-        <v>3296.411438714559</v>
+        <v>3987568.449167849</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3061,31 +3079,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>71.05405954465208</v>
+        <v>1116426.318231671</v>
       </c>
       <c r="G76">
-        <v>145.2705584781034</v>
+        <v>4841351.05035657</v>
       </c>
       <c r="H76">
-        <v>2053.489831040363</v>
+        <v>3985999.66301377</v>
       </c>
       <c r="I76">
-        <v>-639.3178437054038</v>
+        <v>1115664.141458645</v>
       </c>
       <c r="J76">
-        <v>747.5957770396644</v>
+        <v>4842199.574909428</v>
       </c>
       <c r="K76">
-        <v>3297.259622039115</v>
+        <v>3987569.271945704</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3096,31 +3114,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>68.65026221992011</v>
+        <v>1116424.094598083</v>
       </c>
       <c r="G77">
-        <v>163.5571621272841</v>
+        <v>4841367.563159776</v>
       </c>
       <c r="H77">
-        <v>2079.389083757028</v>
+        <v>3986020.274707597</v>
       </c>
       <c r="I77">
-        <v>-594.1232645960469</v>
+        <v>1115713.498955501</v>
       </c>
       <c r="J77">
-        <v>710.4179144117257</v>
+        <v>4842150.923341451</v>
       </c>
       <c r="K77">
-        <v>3282.491387400702</v>
+        <v>3987554.946061124</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3131,31 +3149,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>66.47470440566563</v>
+        <v>1116422.082097537</v>
       </c>
       <c r="G78">
-        <v>181.8437657764647</v>
+        <v>4841384.07596298</v>
       </c>
       <c r="H78">
-        <v>2103.622733754101</v>
+        <v>3986039.560846063</v>
       </c>
       <c r="I78">
-        <v>-547.8158105543719</v>
+        <v>1115764.07183531</v>
       </c>
       <c r="J78">
-        <v>673.2400517837872</v>
+        <v>4842102.271773475</v>
       </c>
       <c r="K78">
-        <v>3252.10673479932</v>
+        <v>3987525.47151411</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3166,31 +3184,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>64.49345279238499</v>
+        <v>1116420.249340013</v>
       </c>
       <c r="G79">
-        <v>200.1303694256454</v>
+        <v>4841400.588766186</v>
       </c>
       <c r="H79">
-        <v>2126.392129869489</v>
+        <v>3986057.681670879</v>
       </c>
       <c r="I79">
-        <v>-500.3680780589974</v>
+        <v>1115815.890025757</v>
       </c>
       <c r="J79">
-        <v>636.0621891558485</v>
+        <v>4842053.620205499</v>
       </c>
       <c r="K79">
-        <v>3206.105664234969</v>
+        <v>3987480.848304661</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3201,31 +3219,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>62.67923437294815</v>
+        <v>1116418.571096606</v>
       </c>
       <c r="G80">
-        <v>218.416973074826</v>
+        <v>4841417.101569392</v>
       </c>
       <c r="H80">
-        <v>2147.864182143131</v>
+        <v>3986074.770015942</v>
       </c>
       <c r="I80">
-        <v>-451.7519888020379</v>
+        <v>1115868.984191472</v>
       </c>
       <c r="J80">
-        <v>598.8843265279098</v>
+        <v>4842004.968637522</v>
       </c>
       <c r="K80">
-        <v>3144.48817570765</v>
+        <v>3987421.076432778</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3236,31 +3254,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>61.00984629071936</v>
+        <v>1116417.026828555</v>
       </c>
       <c r="G81">
-        <v>236.7035767240066</v>
+        <v>4841433.614372598</v>
       </c>
       <c r="H81">
-        <v>2168.178793889873</v>
+        <v>3986090.937222082</v>
       </c>
       <c r="I81">
-        <v>-401.9387730731081</v>
+        <v>1115923.385752173</v>
       </c>
       <c r="J81">
-        <v>561.7064638999713</v>
+        <v>4841956.317069546</v>
       </c>
       <c r="K81">
-        <v>3067.254269217362</v>
+        <v>3987346.155898461</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3271,31 +3289,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>59.46700598002958</v>
+        <v>1116415.599623565</v>
       </c>
       <c r="G82">
-        <v>254.9901803731873</v>
+        <v>4841450.127175804</v>
       </c>
       <c r="H82">
-        <v>2187.454391136233</v>
+        <v>3986106.277537616</v>
       </c>
       <c r="I82">
-        <v>-350.8989527341709</v>
+        <v>1115979.126901257</v>
       </c>
       <c r="J82">
-        <v>524.5286012720326</v>
+        <v>4841907.66550157</v>
       </c>
       <c r="K82">
-        <v>2974.403944764105</v>
+        <v>3987256.08670171</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3306,31 +3324,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>58.03550452729598</v>
+        <v>1116414.275412627</v>
       </c>
       <c r="G83">
-        <v>273.2767840223678</v>
+        <v>4841466.639979009</v>
       </c>
       <c r="H83">
-        <v>2205.792105558806</v>
+        <v>3986120.871447306</v>
       </c>
       <c r="I83">
-        <v>-298.6023237751613</v>
+        <v>1116036.240624856</v>
       </c>
       <c r="J83">
-        <v>487.3507386440938</v>
+        <v>4841859.013933594</v>
       </c>
       <c r="K83">
-        <v>2865.937202347879</v>
+        <v>3987150.868842524</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3341,31 +3359,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>56.70257313707913</v>
+        <v>1116413.042383961</v>
       </c>
       <c r="G84">
-        <v>291.5633876715485</v>
+        <v>4841483.152782215</v>
       </c>
       <c r="H84">
-        <v>2223.27898618847</v>
+        <v>3986134.78822836</v>
       </c>
       <c r="I84">
-        <v>-245.0179384400526</v>
+        <v>1116094.760721355</v>
       </c>
       <c r="J84">
-        <v>450.1728760161553</v>
+        <v>4841810.362365617</v>
       </c>
       <c r="K84">
-        <v>2741.854041968685</v>
+        <v>3987030.502320903</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3376,31 +3394,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>55.45740212045784</v>
+        <v>1116411.89053806</v>
       </c>
       <c r="G85">
-        <v>309.8499913207292</v>
+        <v>4841499.665585421</v>
       </c>
       <c r="H85">
-        <v>2239.990498526022</v>
+        <v>3986148.087939338</v>
       </c>
       <c r="I85">
-        <v>-190.1140869127975</v>
+        <v>1116154.721821393</v>
       </c>
       <c r="J85">
-        <v>412.9950133882166</v>
+        <v>4841761.710797641</v>
       </c>
       <c r="K85">
-        <v>2602.154463626521</v>
+        <v>3986894.987136849</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3411,31 +3429,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>54.29077085224894</v>
+        <v>1116410.811345382</v>
       </c>
       <c r="G86">
-        <v>328.1365949699098</v>
+        <v>4841516.178388626</v>
       </c>
       <c r="H86">
-        <v>2255.992492759706</v>
+        <v>3986160.822986538</v>
       </c>
       <c r="I86">
-        <v>-133.8582785523006</v>
+        <v>1116216.159408357</v>
       </c>
       <c r="J86">
-        <v>375.8171507602781</v>
+        <v>4841713.059229665</v>
       </c>
       <c r="K86">
-        <v>2446.83846732139</v>
+        <v>3986744.32329036</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3446,31 +3464,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>53.19475967436495</v>
+        <v>1116409.797479844</v>
       </c>
       <c r="G87">
-        <v>346.4231986190904</v>
+        <v>4841532.691191832</v>
       </c>
       <c r="H87">
-        <v>2271.342770924043</v>
+        <v>3986173.039371201</v>
       </c>
       <c r="I87">
-        <v>-76.21722266532113</v>
+        <v>1116279.109839377</v>
       </c>
       <c r="J87">
-        <v>338.6392881323393</v>
+        <v>4841664.407661689</v>
       </c>
       <c r="K87">
-        <v>2275.906053053289</v>
+        <v>3986578.510781437</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3481,31 +3499,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>52.16252313829293</v>
+        <v>1116408.842609062</v>
       </c>
       <c r="G88">
-        <v>364.7098022682711</v>
+        <v>4841549.203995037</v>
       </c>
       <c r="H88">
-        <v>2286.09234723911</v>
+        <v>3986184.777692549</v>
       </c>
       <c r="I88">
-        <v>-17.1568088059241</v>
+        <v>1116343.610366849</v>
       </c>
       <c r="J88">
-        <v>301.4614255044007</v>
+        <v>4841615.756093713</v>
       </c>
       <c r="K88">
-        <v>2089.357220822219</v>
+        <v>3986397.549610079</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3516,31 +3534,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>51.18810973379697</v>
+        <v>1116407.941227588</v>
       </c>
       <c r="G89">
-        <v>382.9964059174517</v>
+        <v>4841565.716798243</v>
       </c>
       <c r="H89">
-        <v>2300.286471005546</v>
+        <v>3986196.073961844</v>
       </c>
       <c r="I89">
-        <v>43.35791341017631</v>
+        <v>1116409.699160469</v>
       </c>
       <c r="J89">
-        <v>264.2835628764621</v>
+        <v>4841567.104525737</v>
       </c>
       <c r="K89">
-        <v>1887.191970628181</v>
+        <v>3986201.439776288</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3551,31 +3569,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>50.26631725019102</v>
+        <v>1116407.088523117</v>
       </c>
       <c r="G90">
-        <v>401.2830095666324</v>
+        <v>4841582.229601449</v>
       </c>
       <c r="H90">
-        <v>2313.965463792311</v>
+        <v>3986206.960268653</v>
       </c>
       <c r="I90">
-        <v>105.3627549883245</v>
+        <v>1116477.415329832</v>
       </c>
       <c r="J90">
-        <v>227.1057002485234</v>
+        <v>4841518.452957761</v>
       </c>
       <c r="K90">
-        <v>1669.410302471174</v>
+        <v>3985990.181280062</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3586,31 +3604,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>49.39257573809184</v>
+        <v>1116406.280268214</v>
       </c>
       <c r="G91">
-        <v>419.569613215813</v>
+        <v>4841598.742404654</v>
       </c>
       <c r="H91">
-        <v>2327.165409961935</v>
+        <v>3986217.465330399</v>
       </c>
       <c r="I91">
-        <v>168.8944087469268</v>
+        <v>1116546.798947568</v>
       </c>
       <c r="J91">
-        <v>189.9278376205849</v>
+        <v>4841469.801389785</v>
       </c>
       <c r="K91">
-        <v>1436.012216351198</v>
+        <v>3985763.774121401</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3621,31 +3639,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>48.56285205795483</v>
+        <v>1116405.512732022</v>
       </c>
       <c r="G92">
-        <v>437.8562168649937</v>
+        <v>4841615.25520786</v>
       </c>
       <c r="H92">
-        <v>2339.918730324041</v>
+        <v>3986227.614948902</v>
       </c>
       <c r="I92">
-        <v>233.9904710312844</v>
+        <v>1116617.891073059</v>
       </c>
       <c r="J92">
-        <v>152.7499749926462</v>
+        <v>4841421.149821808</v>
       </c>
       <c r="K92">
-        <v>1186.997712268253</v>
+        <v>3985522.218300306</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3656,31 +3674,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>47.77357146406667</v>
+        <v>1116404.782607723</v>
       </c>
       <c r="G93">
-        <v>456.1428205141743</v>
+        <v>4841631.768011066</v>
       </c>
       <c r="H93">
-        <v>2352.254661878737</v>
+        <v>3986237.432392172</v>
       </c>
       <c r="I93">
-        <v>300.6894639621157</v>
+        <v>1116690.733776737</v>
       </c>
       <c r="J93">
-        <v>115.5721123647075</v>
+        <v>4841372.498253832</v>
       </c>
       <c r="K93">
-        <v>922.3667902223391</v>
+        <v>3985265.513816777</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3691,31 +3709,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>47.02155274478849</v>
+        <v>1116404.086952533</v>
       </c>
       <c r="G94">
-        <v>474.429424163355</v>
+        <v>4841648.280814271</v>
       </c>
       <c r="H94">
-        <v>2364.199661514788</v>
+        <v>3986246.938715692</v>
       </c>
       <c r="I94">
-        <v>369.0308582319193</v>
+        <v>1116765.370164979</v>
       </c>
       <c r="J94">
-        <v>78.39424973676894</v>
+        <v>4841323.846685856</v>
       </c>
       <c r="K94">
-        <v>642.1194502134572</v>
+        <v>3984993.660670813</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3726,31 +3744,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>46.30395423453833</v>
+        <v>1116403.423137771</v>
       </c>
       <c r="G95">
-        <v>492.7160278125355</v>
+        <v>4841664.793617478</v>
       </c>
       <c r="H95">
-        <v>2375.777747684118</v>
+        <v>3986256.153034338</v>
       </c>
       <c r="I95">
-        <v>439.0550964626884</v>
+        <v>1116841.844405616</v>
       </c>
       <c r="J95">
-        <v>41.21638710883023</v>
+        <v>4841275.19511788</v>
       </c>
       <c r="K95">
-        <v>346.2556922416057</v>
+        <v>3984706.658862415</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3761,31 +3779,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>45.61822860810075</v>
+        <v>1116402.788807031</v>
       </c>
       <c r="G96">
-        <v>511.0026314617162</v>
+        <v>4841681.306420683</v>
       </c>
       <c r="H96">
-        <v>2387.010791147649</v>
+        <v>3986265.092753764</v>
       </c>
       <c r="I96">
-        <v>510.8036171387718</v>
+        <v>1116920.201754075</v>
       </c>
       <c r="J96">
-        <v>4.038524480891523</v>
+        <v>4841226.543549903</v>
       </c>
       <c r="K96">
-        <v>34.77551630678563</v>
+        <v>3984404.508391583</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3796,31 +3814,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>44.96208481777509</v>
+        <v>1116402.18184098</v>
       </c>
       <c r="G97">
-        <v>529.2892351108968</v>
+        <v>4841697.819223888</v>
       </c>
       <c r="H97">
-        <v>2397.918763638856</v>
+        <v>3986273.773768298</v>
       </c>
       <c r="I97">
-        <v>584.3188791290744</v>
+        <v>1117000.488580152</v>
       </c>
       <c r="J97">
-        <v>-33.13933814704701</v>
+        <v>4841177.891981927</v>
       </c>
       <c r="K97">
-        <v>-292.3210775910023</v>
+        <v>3984087.209258317</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3831,31 +3849,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>44.333455877082</v>
+        <v>1116401.60032755</v>
       </c>
       <c r="G98">
-        <v>547.5758387600774</v>
+        <v>4841714.332027094</v>
       </c>
       <c r="H98">
-        <v>2408.519951549018</v>
+        <v>3986282.210631005</v>
       </c>
       <c r="I98">
-        <v>659.6443868130876</v>
+        <v>1117082.752395459</v>
       </c>
       <c r="J98">
-        <v>-70.31720077498572</v>
+        <v>4841129.240413951</v>
       </c>
       <c r="K98">
-        <v>-635.03408945176</v>
+        <v>3983754.761462616</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3866,31 +3884,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>43.73047145875579</v>
+        <v>1116401.042536595</v>
       </c>
       <c r="G99">
-        <v>565.8624424092582</v>
+        <v>4841730.8448303</v>
       </c>
       <c r="H99">
-        <v>2418.831140377237</v>
+        <v>3986290.41670048</v>
       </c>
       <c r="I99">
-        <v>736.8247158256239</v>
+        <v>1117167.041881536</v>
       </c>
       <c r="J99">
-        <v>-107.4950634029244</v>
+        <v>4841080.588845974</v>
       </c>
       <c r="K99">
-        <v>-993.3635192754872</v>
+        <v>3983407.165004481</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3901,31 +3919,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>43.15143447944889</v>
+        <v>1116400.506898227</v>
       </c>
       <c r="G100">
-        <v>584.1490460584388</v>
+        <v>4841747.357633505</v>
       </c>
       <c r="H100">
-        <v>2428.867774617435</v>
+        <v>3986298.404268085</v>
       </c>
       <c r="I100">
-        <v>815.905539435493</v>
+        <v>1117253.406918663</v>
       </c>
       <c r="J100">
-        <v>-144.6729260308631</v>
+        <v>4841031.937277998</v>
       </c>
       <c r="K100">
-        <v>-1367.309367062183</v>
+        <v>3983044.419883911</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3936,31 +3954,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>42.59480100345674</v>
+        <v>1116399.991984229</v>
       </c>
       <c r="G101">
-        <v>602.4356497076194</v>
+        <v>4841763.870436711</v>
       </c>
       <c r="H101">
-        <v>2438.644096905938</v>
+        <v>3986306.1846687</v>
       </c>
       <c r="I101">
-        <v>896.933655573731</v>
+        <v>1117341.898615374</v>
       </c>
       <c r="J101">
-        <v>-181.8507886588015</v>
+        <v>4840983.285710022</v>
       </c>
       <c r="K101">
-        <v>-1756.871632811844</v>
+        <v>3982666.526100907</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3971,31 +3989,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>42.05916292353801</v>
+        <v>1116399.496492028</v>
       </c>
       <c r="G102">
-        <v>620.7222533568</v>
+        <v>4841780.383239917</v>
       </c>
       <c r="H102">
-        <v>2448.173269576391</v>
+        <v>3986313.768377453</v>
       </c>
       <c r="I102">
-        <v>979.9570145273741</v>
+        <v>1117432.569338707</v>
       </c>
       <c r="J102">
-        <v>-219.0286512867402</v>
+        <v>4840934.634142046</v>
       </c>
       <c r="K102">
-        <v>-2162.050316524477</v>
+        <v>3982273.483655469</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4006,31 +4024,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>41.54323297648153</v>
+        <v>1116399.019230844</v>
       </c>
       <c r="G103">
-        <v>639.0088570059806</v>
+        <v>4841796.896043123</v>
       </c>
       <c r="H103">
-        <v>2457.467481225445</v>
+        <v>3986321.165094531</v>
       </c>
       <c r="I103">
-        <v>1065.02474731516</v>
+        <v>1117525.472745186</v>
       </c>
       <c r="J103">
-        <v>-256.2065139146789</v>
+        <v>4840885.982574069</v>
       </c>
       <c r="K103">
-        <v>-2582.845418200079</v>
+        <v>3981865.292547597</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4041,31 +4059,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>41.04583173041328</v>
+        <v>1116398.55910964</v>
       </c>
       <c r="G104">
-        <v>657.2954606551613</v>
+        <v>4841813.408846328</v>
       </c>
       <c r="H104">
-        <v>2466.538040453946</v>
+        <v>3986328.383819785</v>
       </c>
       <c r="I104">
-        <v>1152.187194761967</v>
+        <v>1117620.66381258</v>
       </c>
       <c r="J104">
-        <v>-293.3843765426176</v>
+        <v>4840837.331006093</v>
       </c>
       <c r="K104">
-        <v>-3019.25693783865</v>
+        <v>3981441.95277729</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4076,31 +4094,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>40.56587624443043</v>
+        <v>1116398.115126644</v>
       </c>
       <c r="G105">
-        <v>675.582064304342</v>
+        <v>4841829.921649533</v>
       </c>
       <c r="H105">
-        <v>2475.395458592215</v>
+        <v>3986335.432918567</v>
       </c>
       <c r="I105">
-        <v>1241.49593728917</v>
+        <v>1117718.198872434</v>
       </c>
       <c r="J105">
-        <v>-330.5622391705563</v>
+        <v>4840788.679438117</v>
       </c>
       <c r="K105">
-        <v>-3471.284875440189</v>
+        <v>3981003.464344549</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4111,31 +4129,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>40.10237015240205</v>
+        <v>1116397.686360165</v>
       </c>
       <c r="G106">
-        <v>693.8686679535226</v>
+        <v>4841846.43445274</v>
       </c>
       <c r="H106">
-        <v>2484.049522927225</v>
+        <v>3986342.320180001</v>
       </c>
       <c r="I106">
-        <v>1333.003825438567</v>
+        <v>1117818.135643407</v>
       </c>
       <c r="J106">
-        <v>-367.7401017984947</v>
+        <v>4840740.027870141</v>
       </c>
       <c r="K106">
-        <v>-3938.929231004694</v>
+        <v>3980549.827249373</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4146,31 +4164,3741 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>39.65439496431501</v>
+        <v>1116397.271960555</v>
       </c>
       <c r="G107">
-        <v>712.1552716027031</v>
+        <v>4841862.947255946</v>
       </c>
       <c r="H107">
-        <v>2492.509361711004</v>
+        <v>3986349.05286873</v>
       </c>
       <c r="I107">
-        <v>1426.765011147932</v>
+        <v>1117920.533265424</v>
       </c>
       <c r="J107">
-        <v>-404.9179644264334</v>
+        <v>4840691.376302164</v>
       </c>
       <c r="K107">
-        <v>-4422.190004532171</v>
+        <v>3980081.041491764</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>58</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" t="s">
+        <v>21</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116577.430883367</v>
+      </c>
+      <c r="G108">
+        <v>4841130.322269244</v>
+      </c>
+      <c r="H108">
+        <v>3985226.704822439</v>
+      </c>
+      <c r="I108">
+        <v>1114860.577238756</v>
+      </c>
+      <c r="J108">
+        <v>4843215.156759473</v>
+      </c>
+      <c r="K108">
+        <v>3984372.128757935</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>58</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116577.430883367</v>
+      </c>
+      <c r="G109">
+        <v>4841130.322269244</v>
+      </c>
+      <c r="H109">
+        <v>3985226.704822439</v>
+      </c>
+      <c r="I109">
+        <v>1114890.191214496</v>
+      </c>
+      <c r="J109">
+        <v>4843166.505252783</v>
+      </c>
+      <c r="K109">
+        <v>3984675.924887734</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>58</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116577.430883367</v>
+      </c>
+      <c r="G110">
+        <v>4841130.322269244</v>
+      </c>
+      <c r="H110">
+        <v>3985226.704822439</v>
+      </c>
+      <c r="I110">
+        <v>1114920.534407144</v>
+      </c>
+      <c r="J110">
+        <v>4843117.853746094</v>
+      </c>
+      <c r="K110">
+        <v>3984964.572349949</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>58</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116577.430883367</v>
+      </c>
+      <c r="G111">
+        <v>4841130.322269244</v>
+      </c>
+      <c r="H111">
+        <v>3985226.704822439</v>
+      </c>
+      <c r="I111">
+        <v>1114951.624772996</v>
+      </c>
+      <c r="J111">
+        <v>4843069.202239404</v>
+      </c>
+      <c r="K111">
+        <v>3985238.071144582</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>58</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116577.430883367</v>
+      </c>
+      <c r="G112">
+        <v>4841130.322269244</v>
+      </c>
+      <c r="H112">
+        <v>3985226.704822439</v>
+      </c>
+      <c r="I112">
+        <v>1114983.480710504</v>
+      </c>
+      <c r="J112">
+        <v>4843020.550732716</v>
+      </c>
+      <c r="K112">
+        <v>3985496.421271631</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>58</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116577.430883367</v>
+      </c>
+      <c r="G113">
+        <v>4841130.322269244</v>
+      </c>
+      <c r="H113">
+        <v>3985226.704822439</v>
+      </c>
+      <c r="I113">
+        <v>1115016.121071167</v>
+      </c>
+      <c r="J113">
+        <v>4842971.899226027</v>
+      </c>
+      <c r="K113">
+        <v>3985739.622731098</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>58</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116577.430883367</v>
+      </c>
+      <c r="G114">
+        <v>4841130.322269244</v>
+      </c>
+      <c r="H114">
+        <v>3985226.704822439</v>
+      </c>
+      <c r="I114">
+        <v>1115049.565170682</v>
+      </c>
+      <c r="J114">
+        <v>4842923.247719337</v>
+      </c>
+      <c r="K114">
+        <v>3985967.675522981</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>58</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116577.430883367</v>
+      </c>
+      <c r="G115">
+        <v>4841130.322269244</v>
+      </c>
+      <c r="H115">
+        <v>3985226.704822439</v>
+      </c>
+      <c r="I115">
+        <v>1115083.832800379</v>
+      </c>
+      <c r="J115">
+        <v>4842874.596212648</v>
+      </c>
+      <c r="K115">
+        <v>3986180.57964728</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>58</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116577.430883367</v>
+      </c>
+      <c r="G116">
+        <v>4841146.835108099</v>
+      </c>
+      <c r="H116">
+        <v>3985226.704822439</v>
+      </c>
+      <c r="I116">
+        <v>1115118.944238933</v>
+      </c>
+      <c r="J116">
+        <v>4842825.944705959</v>
+      </c>
+      <c r="K116">
+        <v>3986378.335103997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>58</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116528.750366376</v>
+      </c>
+      <c r="G117">
+        <v>4841163.347946952</v>
+      </c>
+      <c r="H117">
+        <v>3985425.95914804</v>
+      </c>
+      <c r="I117">
+        <v>1115154.920264359</v>
+      </c>
+      <c r="J117">
+        <v>4842777.29319927</v>
+      </c>
+      <c r="K117">
+        <v>3986560.94189313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>58</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116500.153004723</v>
+      </c>
+      <c r="G118">
+        <v>4841179.860785807</v>
+      </c>
+      <c r="H118">
+        <v>3985544.645214621</v>
+      </c>
+      <c r="I118">
+        <v>1115191.782166313</v>
+      </c>
+      <c r="J118">
+        <v>4842728.641692581</v>
+      </c>
+      <c r="K118">
+        <v>3986728.40001468</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>58</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116482.100252039</v>
+      </c>
+      <c r="G119">
+        <v>4841196.373624661</v>
+      </c>
+      <c r="H119">
+        <v>3985629.462124722</v>
+      </c>
+      <c r="I119">
+        <v>1115229.551758691</v>
+      </c>
+      <c r="J119">
+        <v>4842679.990185891</v>
+      </c>
+      <c r="K119">
+        <v>3986880.709468646</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>58</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116469.510335597</v>
+      </c>
+      <c r="G120">
+        <v>4841212.886463515</v>
+      </c>
+      <c r="H120">
+        <v>3985695.509007176</v>
+      </c>
+      <c r="I120">
+        <v>1115268.251392534</v>
+      </c>
+      <c r="J120">
+        <v>4842631.338679203</v>
+      </c>
+      <c r="K120">
+        <v>3987017.87025503</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>58</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116460.117880906</v>
+      </c>
+      <c r="G121">
+        <v>4841229.399302369</v>
+      </c>
+      <c r="H121">
+        <v>3985749.60652697</v>
+      </c>
+      <c r="I121">
+        <v>1115307.903969257</v>
+      </c>
+      <c r="J121">
+        <v>4842582.687172514</v>
+      </c>
+      <c r="K121">
+        <v>3987139.88237383</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>58</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116452.774292956</v>
+      </c>
+      <c r="G122">
+        <v>4841245.912141223</v>
+      </c>
+      <c r="H122">
+        <v>3985795.423177308</v>
+      </c>
+      <c r="I122">
+        <v>1115348.532954203</v>
+      </c>
+      <c r="J122">
+        <v>4842534.035665824</v>
+      </c>
+      <c r="K122">
+        <v>3987246.745825047</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>58</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116446.8327956</v>
+      </c>
+      <c r="G123">
+        <v>4841262.424980077</v>
+      </c>
+      <c r="H123">
+        <v>3985835.16077702</v>
+      </c>
+      <c r="I123">
+        <v>1115390.162390524</v>
+      </c>
+      <c r="J123">
+        <v>4842485.384159136</v>
+      </c>
+      <c r="K123">
+        <v>3987338.46060868</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>58</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116441.89923572</v>
+      </c>
+      <c r="G124">
+        <v>4841278.93781893</v>
+      </c>
+      <c r="H124">
+        <v>3985870.245145383</v>
+      </c>
+      <c r="I124">
+        <v>1115432.816913417</v>
+      </c>
+      <c r="J124">
+        <v>4842436.732652446</v>
+      </c>
+      <c r="K124">
+        <v>3987415.026724731</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>58</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116437.718414926</v>
+      </c>
+      <c r="G125">
+        <v>4841295.450657784</v>
+      </c>
+      <c r="H125">
+        <v>3985901.652715057</v>
+      </c>
+      <c r="I125">
+        <v>1115476.521764694</v>
+      </c>
+      <c r="J125">
+        <v>4842388.081145758</v>
+      </c>
+      <c r="K125">
+        <v>3987476.444173198</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>58</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116434.117045695</v>
+      </c>
+      <c r="G126">
+        <v>4841311.963496638</v>
+      </c>
+      <c r="H126">
+        <v>3985930.081553841</v>
+      </c>
+      <c r="I126">
+        <v>1115521.302807727</v>
+      </c>
+      <c r="J126">
+        <v>4842339.429639068</v>
+      </c>
+      <c r="K126">
+        <v>3987522.712954082</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>58</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116430.972864267</v>
+      </c>
+      <c r="G127">
+        <v>4841328.476335493</v>
+      </c>
+      <c r="H127">
+        <v>3985956.048052004</v>
+      </c>
+      <c r="I127">
+        <v>1115567.186542746</v>
+      </c>
+      <c r="J127">
+        <v>4842290.778132379</v>
+      </c>
+      <c r="K127">
+        <v>3987553.833067383</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>58</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116428.196849237</v>
+      </c>
+      <c r="G128">
+        <v>4841344.989174346</v>
+      </c>
+      <c r="H128">
+        <v>3985979.944964153</v>
+      </c>
+      <c r="I128">
+        <v>1115614.200122528</v>
+      </c>
+      <c r="J128">
+        <v>4842242.12662569</v>
+      </c>
+      <c r="K128">
+        <v>3987569.8045131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>58</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116425.72245678</v>
+      </c>
+      <c r="G129">
+        <v>4841361.502013201</v>
+      </c>
+      <c r="H129">
+        <v>3986002.077976964</v>
+      </c>
+      <c r="I129">
+        <v>1115662.37136846</v>
+      </c>
+      <c r="J129">
+        <v>4842193.475119001</v>
+      </c>
+      <c r="K129">
+        <v>3987570.627291234</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>58</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" t="s">
+        <v>21</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116423.498824379</v>
+      </c>
+      <c r="G130">
+        <v>4841378.014852055</v>
+      </c>
+      <c r="H130">
+        <v>3986022.689683279</v>
+      </c>
+      <c r="I130">
+        <v>1115711.728787007</v>
+      </c>
+      <c r="J130">
+        <v>4842144.823612311</v>
+      </c>
+      <c r="K130">
+        <v>3987556.301401785</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>58</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116421.486324907</v>
+      </c>
+      <c r="G131">
+        <v>4841394.527690909</v>
+      </c>
+      <c r="H131">
+        <v>3986041.97583343</v>
+      </c>
+      <c r="I131">
+        <v>1115762.301586577</v>
+      </c>
+      <c r="J131">
+        <v>4842096.172105622</v>
+      </c>
+      <c r="K131">
+        <v>3987526.826844752</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>58</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116419.653568361</v>
+      </c>
+      <c r="G132">
+        <v>4841411.040529763</v>
+      </c>
+      <c r="H132">
+        <v>3986060.096669225</v>
+      </c>
+      <c r="I132">
+        <v>1115814.119694811</v>
+      </c>
+      <c r="J132">
+        <v>4842047.520598933</v>
+      </c>
+      <c r="K132">
+        <v>3987482.203620137</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>58</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" t="s">
+        <v>21</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116417.97532585</v>
+      </c>
+      <c r="G133">
+        <v>4841427.553368616</v>
+      </c>
+      <c r="H133">
+        <v>3986077.185024641</v>
+      </c>
+      <c r="I133">
+        <v>1115867.213776288</v>
+      </c>
+      <c r="J133">
+        <v>4841998.869092244</v>
+      </c>
+      <c r="K133">
+        <v>3987422.431727938</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>58</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" t="s">
+        <v>21</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116416.431058622</v>
+      </c>
+      <c r="G134">
+        <v>4841444.06620747</v>
+      </c>
+      <c r="H134">
+        <v>3986093.352240576</v>
+      </c>
+      <c r="I134">
+        <v>1115921.615250676</v>
+      </c>
+      <c r="J134">
+        <v>4841950.217585554</v>
+      </c>
+      <c r="K134">
+        <v>3987347.511168155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>58</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" t="s">
+        <v>21</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116415.003854394</v>
+      </c>
+      <c r="G135">
+        <v>4841460.579046325</v>
+      </c>
+      <c r="H135">
+        <v>3986108.692565404</v>
+      </c>
+      <c r="I135">
+        <v>1115977.356311322</v>
+      </c>
+      <c r="J135">
+        <v>4841901.566078866</v>
+      </c>
+      <c r="K135">
+        <v>3987257.441940791</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>58</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" t="s">
+        <v>21</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116413.679644163</v>
+      </c>
+      <c r="G136">
+        <v>4841477.091885178</v>
+      </c>
+      <c r="H136">
+        <v>3986123.286483936</v>
+      </c>
+      <c r="I136">
+        <v>1116034.469944306</v>
+      </c>
+      <c r="J136">
+        <v>4841852.914572177</v>
+      </c>
+      <c r="K136">
+        <v>3987152.224045842</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>58</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" t="s">
+        <v>21</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116412.446616155</v>
+      </c>
+      <c r="G137">
+        <v>4841493.604724033</v>
+      </c>
+      <c r="H137">
+        <v>3986137.203273421</v>
+      </c>
+      <c r="I137">
+        <v>1116092.989947958</v>
+      </c>
+      <c r="J137">
+        <v>4841804.263065487</v>
+      </c>
+      <c r="K137">
+        <v>3987031.85748331</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>58</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" t="s">
+        <v>21</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116411.294770868</v>
+      </c>
+      <c r="G138">
+        <v>4841510.117562887</v>
+      </c>
+      <c r="H138">
+        <v>3986150.502992458</v>
+      </c>
+      <c r="I138">
+        <v>1116152.950952863</v>
+      </c>
+      <c r="J138">
+        <v>4841755.611558799</v>
+      </c>
+      <c r="K138">
+        <v>3986896.342253195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>58</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" t="s">
+        <v>21</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116410.215578766</v>
+      </c>
+      <c r="G139">
+        <v>4841526.630401741</v>
+      </c>
+      <c r="H139">
+        <v>3986163.238047372</v>
+      </c>
+      <c r="I139">
+        <v>1116214.388442351</v>
+      </c>
+      <c r="J139">
+        <v>4841706.960052109</v>
+      </c>
+      <c r="K139">
+        <v>3986745.678355496</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>58</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" t="s">
+        <v>21</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116409.201713769</v>
+      </c>
+      <c r="G140">
+        <v>4841543.143240595</v>
+      </c>
+      <c r="H140">
+        <v>3986175.454439437</v>
+      </c>
+      <c r="I140">
+        <v>1116277.338773496</v>
+      </c>
+      <c r="J140">
+        <v>4841658.308545421</v>
+      </c>
+      <c r="K140">
+        <v>3986579.865790215</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>58</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" t="s">
+        <v>21</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116408.246843497</v>
+      </c>
+      <c r="G141">
+        <v>4841559.656079449</v>
+      </c>
+      <c r="H141">
+        <v>3986187.192767898</v>
+      </c>
+      <c r="I141">
+        <v>1116341.839198632</v>
+      </c>
+      <c r="J141">
+        <v>4841609.657038731</v>
+      </c>
+      <c r="K141">
+        <v>3986398.90455735</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>58</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116407.345462504</v>
+      </c>
+      <c r="G142">
+        <v>4841576.168918302</v>
+      </c>
+      <c r="H142">
+        <v>3986198.489044036</v>
+      </c>
+      <c r="I142">
+        <v>1116407.927887397</v>
+      </c>
+      <c r="J142">
+        <v>4841561.005532042</v>
+      </c>
+      <c r="K142">
+        <v>3986202.794656902</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>58</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" t="s">
+        <v>21</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116406.492758488</v>
+      </c>
+      <c r="G143">
+        <v>4841592.681757157</v>
+      </c>
+      <c r="H143">
+        <v>3986209.37535744</v>
+      </c>
+      <c r="I143">
+        <v>1116475.643949323</v>
+      </c>
+      <c r="J143">
+        <v>4841512.354025353</v>
+      </c>
+      <c r="K143">
+        <v>3985991.53608887</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>58</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" t="s">
+        <v>21</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116405.684504016</v>
+      </c>
+      <c r="G144">
+        <v>4841609.19459601</v>
+      </c>
+      <c r="H144">
+        <v>3986219.880425551</v>
+      </c>
+      <c r="I144">
+        <v>1116545.027456977</v>
+      </c>
+      <c r="J144">
+        <v>4841463.702518664</v>
+      </c>
+      <c r="K144">
+        <v>3985765.128853255</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>58</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" t="s">
+        <v>21</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116404.916968234</v>
+      </c>
+      <c r="G145">
+        <v>4841625.707434865</v>
+      </c>
+      <c r="H145">
+        <v>3986230.030050203</v>
+      </c>
+      <c r="I145">
+        <v>1116616.119469674</v>
+      </c>
+      <c r="J145">
+        <v>4841415.051011974</v>
+      </c>
+      <c r="K145">
+        <v>3985523.572950058</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>58</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116404.186844324</v>
+      </c>
+      <c r="G146">
+        <v>4841642.220273719</v>
+      </c>
+      <c r="H146">
+        <v>3986239.847499421</v>
+      </c>
+      <c r="I146">
+        <v>1116688.962057781</v>
+      </c>
+      <c r="J146">
+        <v>4841366.399505286</v>
+      </c>
+      <c r="K146">
+        <v>3985266.868379277</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>58</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" t="s">
+        <v>21</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116403.491189506</v>
+      </c>
+      <c r="G147">
+        <v>4841658.733112573</v>
+      </c>
+      <c r="H147">
+        <v>3986249.353828701</v>
+      </c>
+      <c r="I147">
+        <v>1116763.598327606</v>
+      </c>
+      <c r="J147">
+        <v>4841317.747998596</v>
+      </c>
+      <c r="K147">
+        <v>3984995.015140912</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>58</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" t="s">
+        <v>21</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116402.827375098</v>
+      </c>
+      <c r="G148">
+        <v>4841675.245951427</v>
+      </c>
+      <c r="H148">
+        <v>3986258.56815293</v>
+      </c>
+      <c r="I148">
+        <v>1116840.072446912</v>
+      </c>
+      <c r="J148">
+        <v>4841269.096491908</v>
+      </c>
+      <c r="K148">
+        <v>3984708.013234965</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>58</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" t="s">
+        <v>21</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116402.193044697</v>
+      </c>
+      <c r="G149">
+        <v>4841691.758790282</v>
+      </c>
+      <c r="H149">
+        <v>3986267.507877772</v>
+      </c>
+      <c r="I149">
+        <v>1116918.42967105</v>
+      </c>
+      <c r="J149">
+        <v>4841220.444985217</v>
+      </c>
+      <c r="K149">
+        <v>3984405.862661434</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>58</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" t="s">
+        <v>21</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116401.586078969</v>
+      </c>
+      <c r="G150">
+        <v>4841708.271629135</v>
+      </c>
+      <c r="H150">
+        <v>3986276.188897565</v>
+      </c>
+      <c r="I150">
+        <v>1116998.716369746</v>
+      </c>
+      <c r="J150">
+        <v>4841171.793478529</v>
+      </c>
+      <c r="K150">
+        <v>3984088.563420319</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>58</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" t="s">
+        <v>21</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116401.00456585</v>
+      </c>
+      <c r="G151">
+        <v>4841724.784467989</v>
+      </c>
+      <c r="H151">
+        <v>3986284.625765384</v>
+      </c>
+      <c r="I151">
+        <v>1117080.980054534</v>
+      </c>
+      <c r="J151">
+        <v>4841123.14197184</v>
+      </c>
+      <c r="K151">
+        <v>3983756.115511622</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>58</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" t="s">
+        <v>21</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116400.446775193</v>
+      </c>
+      <c r="G152">
+        <v>4841741.297306842</v>
+      </c>
+      <c r="H152">
+        <v>3986292.83183983</v>
+      </c>
+      <c r="I152">
+        <v>1117165.269406879</v>
+      </c>
+      <c r="J152">
+        <v>4841074.49046515</v>
+      </c>
+      <c r="K152">
+        <v>3983408.518935341</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>58</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" t="s">
+        <v>21</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116399.911137111</v>
+      </c>
+      <c r="G153">
+        <v>4841757.810145697</v>
+      </c>
+      <c r="H153">
+        <v>3986300.819412276</v>
+      </c>
+      <c r="I153">
+        <v>1117251.634306981</v>
+      </c>
+      <c r="J153">
+        <v>4841025.838958462</v>
+      </c>
+      <c r="K153">
+        <v>3983045.773691478</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>58</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" t="s">
+        <v>21</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116399.396223387</v>
+      </c>
+      <c r="G154">
+        <v>4841774.322984551</v>
+      </c>
+      <c r="H154">
+        <v>3986308.599817604</v>
+      </c>
+      <c r="I154">
+        <v>1117340.125863294</v>
+      </c>
+      <c r="J154">
+        <v>4840977.187451772</v>
+      </c>
+      <c r="K154">
+        <v>3982667.87978003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>58</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" t="s">
+        <v>21</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116398.900731451</v>
+      </c>
+      <c r="G155">
+        <v>4841790.835823405</v>
+      </c>
+      <c r="H155">
+        <v>3986316.183530951</v>
+      </c>
+      <c r="I155">
+        <v>1117430.79644277</v>
+      </c>
+      <c r="J155">
+        <v>4840928.535945084</v>
+      </c>
+      <c r="K155">
+        <v>3982274.837201</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>58</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" t="s">
+        <v>21</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116398.423470521</v>
+      </c>
+      <c r="G156">
+        <v>4841807.348662259</v>
+      </c>
+      <c r="H156">
+        <v>3986323.58025251</v>
+      </c>
+      <c r="I156">
+        <v>1117523.69970185</v>
+      </c>
+      <c r="J156">
+        <v>4840879.884438394</v>
+      </c>
+      <c r="K156">
+        <v>3981866.645954386</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>58</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" t="s">
+        <v>21</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116397.963349563</v>
+      </c>
+      <c r="G157">
+        <v>4841823.861501114</v>
+      </c>
+      <c r="H157">
+        <v>3986330.798982138</v>
+      </c>
+      <c r="I157">
+        <v>1117618.890618216</v>
+      </c>
+      <c r="J157">
+        <v>4840831.232931705</v>
+      </c>
+      <c r="K157">
+        <v>3981443.30604019</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>58</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" t="s">
+        <v>21</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116397.519366803</v>
+      </c>
+      <c r="G158">
+        <v>4841840.374339967</v>
+      </c>
+      <c r="H158">
+        <v>3986337.848085191</v>
+      </c>
+      <c r="I158">
+        <v>1117716.425523323</v>
+      </c>
+      <c r="J158">
+        <v>4840782.581425016</v>
+      </c>
+      <c r="K158">
+        <v>3981004.817458409</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>58</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" t="s">
+        <v>21</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116397.090600554</v>
+      </c>
+      <c r="G159">
+        <v>4841856.887178821</v>
+      </c>
+      <c r="H159">
+        <v>3986344.735350798</v>
+      </c>
+      <c r="I159">
+        <v>1117816.362135738</v>
+      </c>
+      <c r="J159">
+        <v>4840733.929918327</v>
+      </c>
+      <c r="K159">
+        <v>3980551.180209046</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>58</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" t="s">
+        <v>21</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116396.676201164</v>
+      </c>
+      <c r="G160">
+        <v>4841873.400017675</v>
+      </c>
+      <c r="H160">
+        <v>3986351.468043606</v>
+      </c>
+      <c r="I160">
+        <v>1117918.759595294</v>
+      </c>
+      <c r="J160">
+        <v>4840685.278411637</v>
+      </c>
+      <c r="K160">
+        <v>3980082.394292099</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>58</v>
+      </c>
+      <c r="B161" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116580.394333344</v>
+      </c>
+      <c r="G161">
+        <v>4841117.59821478</v>
+      </c>
+      <c r="H161">
+        <v>3985224.475950609</v>
+      </c>
+      <c r="I161">
+        <v>1114860.663151191</v>
+      </c>
+      <c r="J161">
+        <v>4843224.252932043</v>
+      </c>
+      <c r="K161">
+        <v>3984373.161214063</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>58</v>
+      </c>
+      <c r="B162" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116580.394333344</v>
+      </c>
+      <c r="G162">
+        <v>4841117.59821478</v>
+      </c>
+      <c r="H162">
+        <v>3985224.475950609</v>
+      </c>
+      <c r="I162">
+        <v>1114890.277129213</v>
+      </c>
+      <c r="J162">
+        <v>4843175.60133398</v>
+      </c>
+      <c r="K162">
+        <v>3984676.957422583</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>58</v>
+      </c>
+      <c r="B163" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" t="s">
+        <v>22</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116580.394333344</v>
+      </c>
+      <c r="G163">
+        <v>4841117.59821478</v>
+      </c>
+      <c r="H163">
+        <v>3985224.475950609</v>
+      </c>
+      <c r="I163">
+        <v>1114920.6203242</v>
+      </c>
+      <c r="J163">
+        <v>4843126.949735916</v>
+      </c>
+      <c r="K163">
+        <v>3984965.604959595</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>58</v>
+      </c>
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" t="s">
+        <v>22</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116580.394333344</v>
+      </c>
+      <c r="G164">
+        <v>4841117.59821478</v>
+      </c>
+      <c r="H164">
+        <v>3985224.475950609</v>
+      </c>
+      <c r="I164">
+        <v>1114951.710692447</v>
+      </c>
+      <c r="J164">
+        <v>4843078.298137854</v>
+      </c>
+      <c r="K164">
+        <v>3985239.103825099</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>58</v>
+      </c>
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116580.394333344</v>
+      </c>
+      <c r="G165">
+        <v>4841117.59821478</v>
+      </c>
+      <c r="H165">
+        <v>3985224.475950609</v>
+      </c>
+      <c r="I165">
+        <v>1114983.56663241</v>
+      </c>
+      <c r="J165">
+        <v>4843029.646539791</v>
+      </c>
+      <c r="K165">
+        <v>3985497.454019094</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>58</v>
+      </c>
+      <c r="B166" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116580.394333344</v>
+      </c>
+      <c r="G166">
+        <v>4841117.59821478</v>
+      </c>
+      <c r="H166">
+        <v>3985224.475950609</v>
+      </c>
+      <c r="I166">
+        <v>1115016.206995588</v>
+      </c>
+      <c r="J166">
+        <v>4842980.994941728</v>
+      </c>
+      <c r="K166">
+        <v>3985740.65554158</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>58</v>
+      </c>
+      <c r="B167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" t="s">
+        <v>22</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116580.394333344</v>
+      </c>
+      <c r="G167">
+        <v>4841117.59821478</v>
+      </c>
+      <c r="H167">
+        <v>3985224.475950609</v>
+      </c>
+      <c r="I167">
+        <v>1115049.65109768</v>
+      </c>
+      <c r="J167">
+        <v>4842932.343343665</v>
+      </c>
+      <c r="K167">
+        <v>3985968.708392557</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>58</v>
+      </c>
+      <c r="B168" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116580.394333344</v>
+      </c>
+      <c r="G168">
+        <v>4841117.59821478</v>
+      </c>
+      <c r="H168">
+        <v>3985224.475950609</v>
+      </c>
+      <c r="I168">
+        <v>1115083.918730019</v>
+      </c>
+      <c r="J168">
+        <v>4842883.691745603</v>
+      </c>
+      <c r="K168">
+        <v>3986181.612572026</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>58</v>
+      </c>
+      <c r="B169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" t="s">
+        <v>22</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116580.394333344</v>
+      </c>
+      <c r="G169">
+        <v>4841134.111010233</v>
+      </c>
+      <c r="H169">
+        <v>3985224.475950609</v>
+      </c>
+      <c r="I169">
+        <v>1115119.030171278</v>
+      </c>
+      <c r="J169">
+        <v>4842835.04014754</v>
+      </c>
+      <c r="K169">
+        <v>3986379.368079986</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>58</v>
+      </c>
+      <c r="B170" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" t="s">
+        <v>22</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116531.713687152</v>
+      </c>
+      <c r="G170">
+        <v>4841150.623805686</v>
+      </c>
+      <c r="H170">
+        <v>3985423.730164771</v>
+      </c>
+      <c r="I170">
+        <v>1115155.006199476</v>
+      </c>
+      <c r="J170">
+        <v>4842786.388549478</v>
+      </c>
+      <c r="K170">
+        <v>3986561.974916438</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>58</v>
+      </c>
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" t="s">
+        <v>22</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116503.1162496</v>
+      </c>
+      <c r="G171">
+        <v>4841167.136601139</v>
+      </c>
+      <c r="H171">
+        <v>3985542.416164972</v>
+      </c>
+      <c r="I171">
+        <v>1115191.868104271</v>
+      </c>
+      <c r="J171">
+        <v>4842737.736951414</v>
+      </c>
+      <c r="K171">
+        <v>3986729.433081381</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>58</v>
+      </c>
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" t="s">
+        <v>22</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116485.063449003</v>
+      </c>
+      <c r="G172">
+        <v>4841183.649396593</v>
+      </c>
+      <c r="H172">
+        <v>3985627.233027636</v>
+      </c>
+      <c r="I172">
+        <v>1115229.63769956</v>
+      </c>
+      <c r="J172">
+        <v>4842689.085353351</v>
+      </c>
+      <c r="K172">
+        <v>3986881.742574814</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>58</v>
+      </c>
+      <c r="B173" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" t="s">
+        <v>22</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116472.473499147</v>
+      </c>
+      <c r="G173">
+        <v>4841200.162192045</v>
+      </c>
+      <c r="H173">
+        <v>3985693.279873152</v>
+      </c>
+      <c r="I173">
+        <v>1115268.337336385</v>
+      </c>
+      <c r="J173">
+        <v>4842640.433755289</v>
+      </c>
+      <c r="K173">
+        <v>3987018.90339674</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>58</v>
+      </c>
+      <c r="B174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" t="s">
+        <v>22</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116463.081019528</v>
+      </c>
+      <c r="G174">
+        <v>4841216.674987498</v>
+      </c>
+      <c r="H174">
+        <v>3985747.37736269</v>
+      </c>
+      <c r="I174">
+        <v>1115307.989916163</v>
+      </c>
+      <c r="J174">
+        <v>4842591.782157226</v>
+      </c>
+      <c r="K174">
+        <v>3987140.915547156</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>58</v>
+      </c>
+      <c r="B175" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" t="s">
+        <v>22</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116455.737412088</v>
+      </c>
+      <c r="G175">
+        <v>4841233.187782951</v>
+      </c>
+      <c r="H175">
+        <v>3985793.193987403</v>
+      </c>
+      <c r="I175">
+        <v>1115348.61890424</v>
+      </c>
+      <c r="J175">
+        <v>4842543.130559162</v>
+      </c>
+      <c r="K175">
+        <v>3987247.779026065</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>58</v>
+      </c>
+      <c r="B176" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116449.795898963</v>
+      </c>
+      <c r="G176">
+        <v>4841249.700578404</v>
+      </c>
+      <c r="H176">
+        <v>3985832.931564891</v>
+      </c>
+      <c r="I176">
+        <v>1115390.248343769</v>
+      </c>
+      <c r="J176">
+        <v>4842494.4789611</v>
+      </c>
+      <c r="K176">
+        <v>3987339.493833464</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>58</v>
+      </c>
+      <c r="B177" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" t="s">
+        <v>22</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116444.862325989</v>
+      </c>
+      <c r="G177">
+        <v>4841266.213373857</v>
+      </c>
+      <c r="H177">
+        <v>3985868.015913632</v>
+      </c>
+      <c r="I177">
+        <v>1115432.902869949</v>
+      </c>
+      <c r="J177">
+        <v>4842445.827363038</v>
+      </c>
+      <c r="K177">
+        <v>3987416.059969354</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>58</v>
+      </c>
+      <c r="B178" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116440.681494099</v>
+      </c>
+      <c r="G178">
+        <v>4841282.72616931</v>
+      </c>
+      <c r="H178">
+        <v>3985899.42346574</v>
+      </c>
+      <c r="I178">
+        <v>1115476.607724594</v>
+      </c>
+      <c r="J178">
+        <v>4842397.175764975</v>
+      </c>
+      <c r="K178">
+        <v>3987477.477433736</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>58</v>
+      </c>
+      <c r="B179" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" t="s">
+        <v>22</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116437.080115309</v>
+      </c>
+      <c r="G179">
+        <v>4841299.238964763</v>
+      </c>
+      <c r="H179">
+        <v>3985927.852288623</v>
+      </c>
+      <c r="I179">
+        <v>1115521.388771078</v>
+      </c>
+      <c r="J179">
+        <v>4842348.524166911</v>
+      </c>
+      <c r="K179">
+        <v>3987523.74622661</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>58</v>
+      </c>
+      <c r="B180" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" t="s">
+        <v>22</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116433.935925537</v>
+      </c>
+      <c r="G180">
+        <v>4841315.751760215</v>
+      </c>
+      <c r="H180">
+        <v>3985953.818772264</v>
+      </c>
+      <c r="I180">
+        <v>1115567.272509633</v>
+      </c>
+      <c r="J180">
+        <v>4842299.872568849</v>
+      </c>
+      <c r="K180">
+        <v>3987554.866347975</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>58</v>
+      </c>
+      <c r="B181" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" t="s">
+        <v>22</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116431.159903139</v>
+      </c>
+      <c r="G181">
+        <v>4841332.264555668</v>
+      </c>
+      <c r="H181">
+        <v>3985977.715671048</v>
+      </c>
+      <c r="I181">
+        <v>1115614.286093038</v>
+      </c>
+      <c r="J181">
+        <v>4842251.220970786</v>
+      </c>
+      <c r="K181">
+        <v>3987570.837797831</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>58</v>
+      </c>
+      <c r="B182" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" t="s">
+        <v>22</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116428.685504115</v>
+      </c>
+      <c r="G182">
+        <v>4841348.777351121</v>
+      </c>
+      <c r="H182">
+        <v>3985999.848671481</v>
+      </c>
+      <c r="I182">
+        <v>1115662.457342682</v>
+      </c>
+      <c r="J182">
+        <v>4842202.569372724</v>
+      </c>
+      <c r="K182">
+        <v>3987571.660576178</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>58</v>
+      </c>
+      <c r="B183" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" t="s">
+        <v>22</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116426.461865812</v>
+      </c>
+      <c r="G183">
+        <v>4841365.290146574</v>
+      </c>
+      <c r="H183">
+        <v>3986020.460366268</v>
+      </c>
+      <c r="I183">
+        <v>1115711.814765032</v>
+      </c>
+      <c r="J183">
+        <v>4842153.91777466</v>
+      </c>
+      <c r="K183">
+        <v>3987557.334683016</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>58</v>
+      </c>
+      <c r="B184" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" t="s">
+        <v>22</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116424.449360999</v>
+      </c>
+      <c r="G184">
+        <v>4841381.802942027</v>
+      </c>
+      <c r="H184">
+        <v>3986039.746505632</v>
+      </c>
+      <c r="I184">
+        <v>1115762.3875685</v>
+      </c>
+      <c r="J184">
+        <v>4842105.266176597</v>
+      </c>
+      <c r="K184">
+        <v>3987527.860118346</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>58</v>
+      </c>
+      <c r="B185" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116422.616599589</v>
+      </c>
+      <c r="G185">
+        <v>4841398.31573748</v>
+      </c>
+      <c r="H185">
+        <v>3986057.867331292</v>
+      </c>
+      <c r="I185">
+        <v>1115814.205680727</v>
+      </c>
+      <c r="J185">
+        <v>4842056.614578535</v>
+      </c>
+      <c r="K185">
+        <v>3987483.236882167</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>58</v>
+      </c>
+      <c r="B186" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" t="s">
+        <v>22</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116420.938352623</v>
+      </c>
+      <c r="G186">
+        <v>4841414.828532932</v>
+      </c>
+      <c r="H186">
+        <v>3986074.955677151</v>
+      </c>
+      <c r="I186">
+        <v>1115867.299766295</v>
+      </c>
+      <c r="J186">
+        <v>4842007.962980472</v>
+      </c>
+      <c r="K186">
+        <v>3987423.46497448</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>58</v>
+      </c>
+      <c r="B187" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" t="s">
+        <v>22</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116419.394081297</v>
+      </c>
+      <c r="G187">
+        <v>4841431.341328386</v>
+      </c>
+      <c r="H187">
+        <v>3986091.122884044</v>
+      </c>
+      <c r="I187">
+        <v>1115921.701244876</v>
+      </c>
+      <c r="J187">
+        <v>4841959.311382409</v>
+      </c>
+      <c r="K187">
+        <v>3987348.544395284</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>58</v>
+      </c>
+      <c r="B188" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116417.966873282</v>
+      </c>
+      <c r="G188">
+        <v>4841447.854123839</v>
+      </c>
+      <c r="H188">
+        <v>3986106.463200293</v>
+      </c>
+      <c r="I188">
+        <v>1115977.442309817</v>
+      </c>
+      <c r="J188">
+        <v>4841910.659784346</v>
+      </c>
+      <c r="K188">
+        <v>3987258.47514458</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>58</v>
+      </c>
+      <c r="B189" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" t="s">
+        <v>22</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116416.642659536</v>
+      </c>
+      <c r="G189">
+        <v>4841464.366919291</v>
+      </c>
+      <c r="H189">
+        <v>3986121.057110662</v>
+      </c>
+      <c r="I189">
+        <v>1116034.555947202</v>
+      </c>
+      <c r="J189">
+        <v>4841862.008186284</v>
+      </c>
+      <c r="K189">
+        <v>3987153.257222367</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>58</v>
+      </c>
+      <c r="B190" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" t="s">
+        <v>22</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116415.409628255</v>
+      </c>
+      <c r="G190">
+        <v>4841480.879714745</v>
+      </c>
+      <c r="H190">
+        <v>3986134.973892364</v>
+      </c>
+      <c r="I190">
+        <v>1116093.075955364</v>
+      </c>
+      <c r="J190">
+        <v>4841813.35658822</v>
+      </c>
+      <c r="K190">
+        <v>3987032.890628644</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>58</v>
+      </c>
+      <c r="B191" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116414.257779912</v>
+      </c>
+      <c r="G191">
+        <v>4841497.392510198</v>
+      </c>
+      <c r="H191">
+        <v>3986148.273603962</v>
+      </c>
+      <c r="I191">
+        <v>1116153.03696489</v>
+      </c>
+      <c r="J191">
+        <v>4841764.704990158</v>
+      </c>
+      <c r="K191">
+        <v>3986897.375363414</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>58</v>
+      </c>
+      <c r="B192" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" t="s">
+        <v>18</v>
+      </c>
+      <c r="D192" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116413.178584945</v>
+      </c>
+      <c r="G192">
+        <v>4841513.90530565</v>
+      </c>
+      <c r="H192">
+        <v>3986161.008651754</v>
+      </c>
+      <c r="I192">
+        <v>1116214.474459112</v>
+      </c>
+      <c r="J192">
+        <v>4841716.053392095</v>
+      </c>
+      <c r="K192">
+        <v>3986746.711426674</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>58</v>
+      </c>
+      <c r="B193" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116412.164717257</v>
+      </c>
+      <c r="G193">
+        <v>4841530.418101104</v>
+      </c>
+      <c r="H193">
+        <v>3986173.225036987</v>
+      </c>
+      <c r="I193">
+        <v>1116277.424795108</v>
+      </c>
+      <c r="J193">
+        <v>4841667.401794032</v>
+      </c>
+      <c r="K193">
+        <v>3986580.898818426</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>58</v>
+      </c>
+      <c r="B194" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" t="s">
+        <v>22</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116411.20984445</v>
+      </c>
+      <c r="G194">
+        <v>4841546.930896556</v>
+      </c>
+      <c r="H194">
+        <v>3986184.963358882</v>
+      </c>
+      <c r="I194">
+        <v>1116341.925225214</v>
+      </c>
+      <c r="J194">
+        <v>4841618.750195969</v>
+      </c>
+      <c r="K194">
+        <v>3986399.937538669</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>58</v>
+      </c>
+      <c r="B195" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116410.308461066</v>
+      </c>
+      <c r="G195">
+        <v>4841563.443692009</v>
+      </c>
+      <c r="H195">
+        <v>3986196.259628703</v>
+      </c>
+      <c r="I195">
+        <v>1116408.013919073</v>
+      </c>
+      <c r="J195">
+        <v>4841570.098597907</v>
+      </c>
+      <c r="K195">
+        <v>3986203.827587404</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>58</v>
+      </c>
+      <c r="B196" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196" t="s">
+        <v>22</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116409.455754786</v>
+      </c>
+      <c r="G196">
+        <v>4841579.956487463</v>
+      </c>
+      <c r="H196">
+        <v>3986207.145936018</v>
+      </c>
+      <c r="I196">
+        <v>1116475.729986217</v>
+      </c>
+      <c r="J196">
+        <v>4841521.446999843</v>
+      </c>
+      <c r="K196">
+        <v>3985992.56896463</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>58</v>
+      </c>
+      <c r="B197" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" t="s">
+        <v>18</v>
+      </c>
+      <c r="D197" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116408.647498169</v>
+      </c>
+      <c r="G197">
+        <v>4841596.469282915</v>
+      </c>
+      <c r="H197">
+        <v>3986217.650998254</v>
+      </c>
+      <c r="I197">
+        <v>1116545.113499217</v>
+      </c>
+      <c r="J197">
+        <v>4841472.795401781</v>
+      </c>
+      <c r="K197">
+        <v>3985766.161670347</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>58</v>
+      </c>
+      <c r="B198" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" t="s">
+        <v>18</v>
+      </c>
+      <c r="D198" t="s">
+        <v>22</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116407.87996035</v>
+      </c>
+      <c r="G198">
+        <v>4841612.982078368</v>
+      </c>
+      <c r="H198">
+        <v>3986227.80061723</v>
+      </c>
+      <c r="I198">
+        <v>1116616.205517393</v>
+      </c>
+      <c r="J198">
+        <v>4841424.143803718</v>
+      </c>
+      <c r="K198">
+        <v>3985524.605704556</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>58</v>
+      </c>
+      <c r="B199" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199" t="s">
+        <v>22</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116407.149834502</v>
+      </c>
+      <c r="G199">
+        <v>4841629.494873822</v>
+      </c>
+      <c r="H199">
+        <v>3986237.618060957</v>
+      </c>
+      <c r="I199">
+        <v>1116689.048111113</v>
+      </c>
+      <c r="J199">
+        <v>4841375.492205655</v>
+      </c>
+      <c r="K199">
+        <v>3985267.901067256</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>58</v>
+      </c>
+      <c r="B200" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" t="s">
+        <v>18</v>
+      </c>
+      <c r="D200" t="s">
+        <v>22</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116406.454177838</v>
+      </c>
+      <c r="G200">
+        <v>4841646.007669274</v>
+      </c>
+      <c r="H200">
+        <v>3986247.12438492</v>
+      </c>
+      <c r="I200">
+        <v>1116763.68438669</v>
+      </c>
+      <c r="J200">
+        <v>4841326.840607592</v>
+      </c>
+      <c r="K200">
+        <v>3984996.047758447</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>58</v>
+      </c>
+      <c r="B201" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" t="s">
+        <v>18</v>
+      </c>
+      <c r="D201" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116405.790361668</v>
+      </c>
+      <c r="G201">
+        <v>4841662.520464727</v>
+      </c>
+      <c r="H201">
+        <v>3986256.338703995</v>
+      </c>
+      <c r="I201">
+        <v>1116840.158511889</v>
+      </c>
+      <c r="J201">
+        <v>4841278.18900953</v>
+      </c>
+      <c r="K201">
+        <v>3984709.045778129</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>58</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" t="s">
+        <v>18</v>
+      </c>
+      <c r="D202" t="s">
+        <v>22</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116405.156029584</v>
+      </c>
+      <c r="G202">
+        <v>4841679.033260181</v>
+      </c>
+      <c r="H202">
+        <v>3986265.278423837</v>
+      </c>
+      <c r="I202">
+        <v>1116918.515742065</v>
+      </c>
+      <c r="J202">
+        <v>4841229.537411466</v>
+      </c>
+      <c r="K202">
+        <v>3984406.895126304</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>58</v>
+      </c>
+      <c r="B203" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" t="s">
+        <v>18</v>
+      </c>
+      <c r="D203" t="s">
+        <v>22</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116404.549062245</v>
+      </c>
+      <c r="G203">
+        <v>4841695.546055633</v>
+      </c>
+      <c r="H203">
+        <v>3986273.959438776</v>
+      </c>
+      <c r="I203">
+        <v>1116998.802446948</v>
+      </c>
+      <c r="J203">
+        <v>4841180.885813404</v>
+      </c>
+      <c r="K203">
+        <v>3984089.595802968</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>58</v>
+      </c>
+      <c r="B204" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" t="s">
+        <v>18</v>
+      </c>
+      <c r="D204" t="s">
+        <v>22</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116403.967547582</v>
+      </c>
+      <c r="G204">
+        <v>4841712.058851086</v>
+      </c>
+      <c r="H204">
+        <v>3986282.396301876</v>
+      </c>
+      <c r="I204">
+        <v>1117081.066138076</v>
+      </c>
+      <c r="J204">
+        <v>4841132.234215342</v>
+      </c>
+      <c r="K204">
+        <v>3983757.147808125</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>58</v>
+      </c>
+      <c r="B205" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" t="s">
+        <v>22</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116403.409755445</v>
+      </c>
+      <c r="G205">
+        <v>4841728.571646539</v>
+      </c>
+      <c r="H205">
+        <v>3986290.602371733</v>
+      </c>
+      <c r="I205">
+        <v>1117165.355496916</v>
+      </c>
+      <c r="J205">
+        <v>4841083.582617277</v>
+      </c>
+      <c r="K205">
+        <v>3983409.551141773</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>58</v>
+      </c>
+      <c r="B206" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" t="s">
+        <v>18</v>
+      </c>
+      <c r="D206" t="s">
+        <v>22</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116402.874115941</v>
+      </c>
+      <c r="G206">
+        <v>4841745.084441992</v>
+      </c>
+      <c r="H206">
+        <v>3986298.589939711</v>
+      </c>
+      <c r="I206">
+        <v>1117251.720403673</v>
+      </c>
+      <c r="J206">
+        <v>4841034.931019215</v>
+      </c>
+      <c r="K206">
+        <v>3983046.805803912</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>58</v>
+      </c>
+      <c r="B207" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" t="s">
+        <v>18</v>
+      </c>
+      <c r="D207" t="s">
+        <v>22</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116402.35920085</v>
+      </c>
+      <c r="G207">
+        <v>4841761.597237444</v>
+      </c>
+      <c r="H207">
+        <v>3986306.370340688</v>
+      </c>
+      <c r="I207">
+        <v>1117340.211966805</v>
+      </c>
+      <c r="J207">
+        <v>4840986.279421153</v>
+      </c>
+      <c r="K207">
+        <v>3982668.911794543</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>58</v>
+      </c>
+      <c r="B208" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" t="s">
+        <v>18</v>
+      </c>
+      <c r="D208" t="s">
+        <v>22</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116401.863707599</v>
+      </c>
+      <c r="G208">
+        <v>4841778.110032897</v>
+      </c>
+      <c r="H208">
+        <v>3986313.954049794</v>
+      </c>
+      <c r="I208">
+        <v>1117430.882553269</v>
+      </c>
+      <c r="J208">
+        <v>4840937.62782309</v>
+      </c>
+      <c r="K208">
+        <v>3982275.869113665</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>58</v>
+      </c>
+      <c r="B209" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" t="s">
+        <v>18</v>
+      </c>
+      <c r="D209" t="s">
+        <v>22</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116401.386445403</v>
+      </c>
+      <c r="G209">
+        <v>4841794.62282835</v>
+      </c>
+      <c r="H209">
+        <v>3986321.350767216</v>
+      </c>
+      <c r="I209">
+        <v>1117523.785819508</v>
+      </c>
+      <c r="J209">
+        <v>4840888.976225026</v>
+      </c>
+      <c r="K209">
+        <v>3981867.677761278</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>58</v>
+      </c>
+      <c r="B210" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" t="s">
+        <v>22</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116400.926323224</v>
+      </c>
+      <c r="G210">
+        <v>4841811.135623803</v>
+      </c>
+      <c r="H210">
+        <v>3986328.569492807</v>
+      </c>
+      <c r="I210">
+        <v>1117618.976743209</v>
+      </c>
+      <c r="J210">
+        <v>4840840.324626964</v>
+      </c>
+      <c r="K210">
+        <v>3981444.337737382</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>58</v>
+      </c>
+      <c r="B211" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211" t="s">
+        <v>22</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116400.482339286</v>
+      </c>
+      <c r="G211">
+        <v>4841827.648419256</v>
+      </c>
+      <c r="H211">
+        <v>3986335.618591916</v>
+      </c>
+      <c r="I211">
+        <v>1117716.511655833</v>
+      </c>
+      <c r="J211">
+        <v>4840791.673028901</v>
+      </c>
+      <c r="K211">
+        <v>3981005.849041978</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>58</v>
+      </c>
+      <c r="B212" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" t="s">
+        <v>22</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116400.053571898</v>
+      </c>
+      <c r="G212">
+        <v>4841844.161214709</v>
+      </c>
+      <c r="H212">
+        <v>3986342.505853672</v>
+      </c>
+      <c r="I212">
+        <v>1117816.448275949</v>
+      </c>
+      <c r="J212">
+        <v>4840743.021430839</v>
+      </c>
+      <c r="K212">
+        <v>3980552.211675066</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>58</v>
+      </c>
+      <c r="B213" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" t="s">
+        <v>22</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116399.639171409</v>
+      </c>
+      <c r="G213">
+        <v>4841860.674010162</v>
+      </c>
+      <c r="H213">
+        <v>3986349.238542714</v>
+      </c>
+      <c r="I213">
+        <v>1117918.845743395</v>
+      </c>
+      <c r="J213">
+        <v>4840694.369832775</v>
+      </c>
+      <c r="K213">
+        <v>3980083.425636644</v>
       </c>
     </row>
   </sheetData>
